--- a/teste.xlsx
+++ b/teste.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>Mensagem</t>
   </si>
@@ -22,604 +22,607 @@
     <t>Target</t>
   </si>
   <si>
-    <t>como o livro se concentra na politica americana das duas ultimas decadas eu esperava que pelo menos apresentasse uma analise das disputas internas dentro dos dois grandes partidos dos estados unidos e uma discussao da relacao destas duas agremiacoes com a sociedade que fosse melhor do que eu posso fazer ou que apresentasse novas e instigantes nao faz isso e gasta energia a toa numa tentativa de comparar hugo chavez com a politica americana que peca pela superficialidade e pelos lugares comuns que nao se espera encontrar num trabalho academico muito ruim</t>
-  </si>
-  <si>
-    <t>boa estoria quis ler antes de ver o filme que na epoca fez sucesso a experiencia de usar o glossario na versao digital foi massacrante pois tinha que marcar a pagina para voltar onde tinha parado e a linguagem diferente causava confusao ao tentar continuar a leitura tendo muitas vezes que reler a frase ou paragrafo</t>
-  </si>
-  <si>
-    <t>nao gostei o livro o tempo todo traz narrativas de cenarios dos eua e da bolsa americana e pouco util para quem esta iniciando no assunto</t>
-  </si>
-  <si>
-    <t>muito confuso</t>
-  </si>
-  <si>
-    <t>comprei o livro logo apos comprar garota exemplar antes mesmo de sair qualquer um dos filmes apareceu como recomendacao pois sao parecidos porem o que ge tem de interessante garota no trem falta o plot e um pouco obvio pelo menos para mim consegui descobrir a pessoa responsavel logo nos primeiros capitulos o resto foi so esperar pra ver como a pessoa era desmascarada em ge ja foi o contrario eu recebia golpe atras de golpe</t>
-  </si>
-  <si>
-    <t>venho por meio deste expressar meu desapontamento com a loja virtual da amazon ja estou aguardando a disponibilidade do livro harry potter e a ordem da fenix a meses e o produto continua indisponivel sem mais explicacoes ou prazos de disponibilidade adquiri o kindle pela praticidade e o produto nao atendeu minhas expectativas por conta desse tipo de produto indisponivel</t>
-  </si>
-  <si>
-    <t>baixei o livro motivada pelo alto indice de avaliacoes positivas mas confesso que nao encontrei nada de novo os livros hot seguem sempre a mesma linha homem fodao grosseiro e frio garota inexperiente que se envolve e se apaixona perdidamente e muito rapidamente pressao humilhacao sexo sexo sexo traicao mocinha sofrendo fodao se regenerando e felizes para sempre enfim nada de novo</t>
-  </si>
-  <si>
-    <t>pessima editora comprei este livro ha algum tempo e resolvi ler agora o livro tem dezenas de paginas fora de ordem nao posso trocar porque ja expirou o prazo para troca entrei em contato com a editora e fui ignorado nem respondem aos emails ha varias reclamacoes sobre este mesmo problema na internet aconselho a quem for comprar que confira todas as paginas assim que receber o livro porque se voce perder o prazo de 7 dias para troca na amazon nao tera nenhum suporte da leya atualizacao 2411 recebi um novo livro hoje nem esperava que a leya fosse enviar um novo exemplar resolvi manter a reclamacao original como um alerta pra futuros compradores mantenho todas as minhas criticas com relacao ao atendimento ao leitor por parte da editora ha muito o que melhorar entretanto apesar da demora e da falta de contato consegui um livro novo sem defeito e uma edicao nova o livro esta menor e a fonte nao e tao escura como das edicoes anteriores acho que este novo formato dificulta um pouco a leitura porque a fonte e bem pequena enviarei fotos da nova edicao em breve</t>
-  </si>
-  <si>
-    <t>e com muita tristeza que venho redigir essa resenha mas infelizmente a amazon pecou na venda desse box a fotografia do box aparece livros pretos com acabamento dourados mas recebi livros preto com um pessimo acabamento prata o livro veio com defeito de fabrica com cola grudada em 2 livros e capa descascando em 1 nao foi especificada em momento algum da compra que as folhas eram brancas e sem orelha essa compra se justifica numa maxima popular o barato sai caro</t>
-  </si>
-  <si>
-    <t>cansativo o kindle nao facilita as idas e vindas no dicionario nadsat o texto se perde e voce tem que ficar procurando onde parou a leitura</t>
-  </si>
-  <si>
-    <t>nao posso avaliar pois nao recebi o livro e hoje constato que o valor correspondente foi debitado em meu cartao favor entrar em contato para que possamos corrigir o erroaguardo</t>
-  </si>
-  <si>
-    <t>o livro ficou super famoso rapidamente no brasil mas achei a leitura meio cansativa e monotona o tipo de livro que voce le ate o fim por obrigacao</t>
-  </si>
-  <si>
-    <t>eu estava disposto a comprar este livro mas sem um posicionamento oficial da amazon quanto as denuncias indicando que este ebook e uma versao pirata que sequer foi traduzida pelo jorge candeias nao se pode fazer nada nao estou disposto a jogar meu dinheiro fora em um material de baixa qualidade me decepciona a possibilidade de isto estar acontecendo na loja da amazon aqui no brasil esta parecendo descuido descaso falta de seriedade com os consumidores brasileiros</t>
-  </si>
-  <si>
-    <t>nao e possivel vi narnia agora e a amazon esta cobrando quase r7000 senhor dos aneis a quase r10000 nada pode justificar estes valores as obras sao sem duvida incriveis mas os precos co sao uma afronta</t>
-  </si>
-  <si>
-    <t>pra mim isso nem pode ser chamado de livro a garota nao tem idade suficiente pra poder contar alguma coisa interessante e util ja basta seu canal infantil com videos bobos</t>
-  </si>
-  <si>
-    <t>assisti alguns videos das palestras ministradas pelo autor e resolvi comprar o ebook para ratificar minha opiniao mais um desses generalistas de plantao</t>
-  </si>
-  <si>
-    <t>o que significa best seller algo que vendeu muito so isso nao implica necessariamente qualidade um bom marketing e suficiente para tornar qualquer besteirol um best seller este livro nao passa de mais um entretenimento como ler admiravel mundo novo cheio de falacias e contradicoes apela ao cientifico para sustentar posicoes questionaveis para quem busca conhecimento e uma perda de tempo ler opinioes pessoais de um autor frustrado com o mundo</t>
-  </si>
-  <si>
-    <t>a percepcao do autor sobre investimento e totalmente especulativa muitos conselhos se assemelham a apostas</t>
-  </si>
-  <si>
-    <t>livro muito cansativo com uma escrita muito redundante usa muitos exemplos e explora muitos detalhes desnecessarios alem de paginas apenas para referencias e apendice poderia ter 13 das paginas para expressar a ideia principal e mesmo assim ainda seria cansativo para quem trabalha com marketing e tem paciencia e uma boa leitura para quem como eu nao faz parte desse publico nao recomendo</t>
-  </si>
-  <si>
-    <t>comprei por se tratar de uma edicao de luxoo que nao e o casopaguei quase r 8000 a edicao normal custa menos de de r 4000 gato por lebre</t>
-  </si>
-  <si>
-    <t>num mosteiro italiano em 1300 ocorreram algumas mortes misteriosas e um ex inquisidor comeca a investigar as ocorrencias ha muito misterio envolvendo a biblioteca e suas obras cujo acesso e feito apenas por um monge bibliotecario quando o investigador acessa a biblioteca descobre que ela e feita na forma de um labirinto e com diversos artificios para complicar seu uso como espelhos que deformam a imagem incensos que geram alucinacoes e passagens de vento que geram ruidos macabros o livro tem longas citacoes em latim que nao sao traduzidas e alem disto ha muitas digressoes filosoficas que nao agregam interesse e nem valor a estoria as relacoes entre os monges e o modo com o misterio e apresentado nao prendem a atencao do leitor entediante</t>
-  </si>
-  <si>
-    <t>o livro tem um tamanho entre o tamanho padrao e um livro de bolso nao ha esta informacao no site nao achei correto gosto de livros tamanho padrao devido ao tamanho da letra</t>
-  </si>
-  <si>
-    <t>esperava mais do livro nao diria que e um livro ruim talvez por tudo que li e ouvi deste criei uma expectativa enorme e me senti um pouco frustada</t>
-  </si>
-  <si>
-    <t>o livro mostra somente os atos praticados pela alemanha o autor esquece de citar os atos praticados por stalin mostra uma polonia como a paladina da bondade nao mencionando sobre o tratado de versalhes e a sistematica expansao de territorio da polonia em territorio alemao</t>
-  </si>
-  <si>
-    <t>o livro e bom para quem esta perdido na vida a maioria dos conselhos sao voltados para um perfil tipico pessoas casadas com filhos que trabalham e estao acima do peso a maioria dos exemplos e conselhos sao no sentido de tracar metas e mentalizar situacoes em que voce esta emagrecendo melhorar o relacionamento com a familiasao poucas referencias no livro parece que a maior parte dos exemplos e do proprio autor e algumas poucas citacoes que tem sao de pseudocienciatem uma parte sobre o poder das palavras e como elas podem alterar a estrutura molecular da agua alguns conselhos sao bons como a questao da autoresponsabilidade assumir a responsabilidade da reacao perante os acontecimentos da vida</t>
-  </si>
-  <si>
-    <t>a linguagem do livro e bastante vulgar e o assunto repetido cansativamente bullying minha filha de 11 anos parou no terceiro capitulo e largou a edicao que na opiniao dela nao prende a atencao nao recomendo</t>
-  </si>
-  <si>
-    <t>livreco escrito por editoras interessadas em vender qualquer porcaria para os ja fanaticos seguidores dela que nao tem muita coisa na cabeca isso se foi mesmo essa tonta quem escreveu esse livreco pois as editoras contratam ghosts writers para escreverem e depois so trocam o nome</t>
-  </si>
-  <si>
-    <t>leitura rapida com algumas dicas para expandirmos nossa percepcao sobre nossas ideias ou acoes acredito que no final tenha agregado algo mesmo que seja minimo</t>
-  </si>
-  <si>
-    <t>tendencioso pensamentos de extremadireita classifica todas as minorias como vitimismos e coloca toda culpa no ptismolulismocomunismo grande ignorancia ler esse autor e perigoso a aqueles brasileiros que ja flertar com tais preconceitos irao os ter reafirmados</t>
-  </si>
-  <si>
-    <t>desde que harry potter foi lancado escuto reclamarem da editora rocco nos livros ou porque o papel branco suja muito ou as letras douradas saiam facilmente a total inconsistencia nas fontes e formatacoes nos livros uns livros com sumario outros sem etc parece que o pottermore seguiu fielmente a cartilha rocco de como nao publicar um livro dessa vez na edicao digital parece que pegaram o primeiro pdf que encontraram na internet e converteram com a ferramenta de email da propria amazon a traducao tem pequenas diferencas como o original impresso os nomes dos fundadores das casas foram mantidos no original em ingles ao inves das traducoes dos nomes que foram publicados como godrico grifinoria e salazar sonserina o que nao e de todo ruim mas as varias palavras com erros eg chamala tocala e semelhantes por diversas vezes perdem a acentuacao e hifen ficando chamala e tocala muitas palavras que obviamente tinham sido hifenizadas num texto impresso aparecem cortadas no texto corrido alem de em dois livros enigma do principe e camara secreta o texto nao vir justificado mas alinhado a esquerda simplesmente inaceitavel ao comparar com as publicacoes dos livros do pottermore em ingles a situacao fica ainda pior la a formatacao e absolutamente impecavel o que deveria ter sido feito tambem aqui se nao fosse de graca com o unlimited teria sido realmente um dinheiro muito mal gasto felizmente os demais livros que li com o preco da assinatura justificaram o valor do mes</t>
-  </si>
-  <si>
-    <t>e um livro bom mas existe coisas que poderiam mudareu esperava mais do livro pois vi outro comentariosmas gosto e gosto</t>
-  </si>
-  <si>
-    <t>o livro e uma ficccao destopica que visa criticar certas ameacas percebidas pela autora e outras feministas a seguranca e a liberdade das mulheres como essa percepcao e na maior parte do tempo preconceituosa e desconectada da realidade o resultado e um livro repleto de paranoia que na melhor das hipoteses desnuda a mente doentia da autora e na pior delas fere a integridade psiquica do leitor ou mais provavelmente da leitora levando em conta que se trata de uma peca de propaganda quanto a qualidade da narrativa e do estilo da autora temos algo nao necessariamente ruim mas certamente nada digno de nota e o tipo de livro que so e lido quando forcado goela abaixo de mocas ainda inocentes e impressionaveis principalemente por academicos engajados na luta feminista e pela midia conivente com fantasias destrutivas e importante alertar as pessoas ao mal que livros desse tipo causam antes de alertar as pessoas para reais riscos presentes em nossa sociedade em especial para as mulheres preferem apontar o dedo para monstros inexistentes desperdicando tempo e recursos preciosos colocando ai sim as pessoas e em especial as mulheres em risco</t>
-  </si>
-  <si>
-    <t>se voce nao e vendedor esqueca o livro e muito fraco ilusorio e seu autor lamentavelmente so sabe falar de vendas e praticas utopicas que nao te levarao a lugar algum muito fraco</t>
-  </si>
-  <si>
-    <t>nao gostei do livro nao achei os conceitos claros o autor da muitos exemplos pessoais utiliza uma linguagem meio desbocada esperava algo mais voltado para o meio corporativo e na verdade depois da metade ele volta mais para uma analise de relacionamentos e valores pessoais</t>
-  </si>
-  <si>
-    <t>nao e o primeiro livro da record que oxida em menos de tres meses e olha que meus livros sao bem guardados e conservados o papel da maioria das edicoes da record e desse jeito fica amarelo em pouco tempo e triste</t>
-  </si>
-  <si>
-    <t>o autor escreve sua experiencia pessoal do que precisou passar para amadurecer na vida em exemplos bem repetitivos tenta mostrar que a felicidade se encontra em valorizar o que realmente importa na vida e deixar de lado o que nao importa alguma novidade nao nao ha nada de novo no discurso apesar de ter uma linguagem cotidiana e informal para se expressar o que torna muitos trechos engracados</t>
-  </si>
-  <si>
-    <t>pessima traducao do livro ou partes do livro estao faltando quando comprado no kindlefrases sem sentido eou claramente com partes faltantes talvez no livro em papel isso nao tenha acontecido mas no online sim</t>
-  </si>
-  <si>
-    <t>achei o livro um suspense interessante que me prendeu do comeco ao fim recomendo apesar de desejar outro final mais justo</t>
-  </si>
-  <si>
-    <t>solicitei meu pagamento em 4 x e quando fui ver os detales da fatura do meu cartao para o proximo pagamento veio a surpresa desagradavel lancaram o valor total da compra ao inves da 1 parcela foi a primeira e a uktima vez que compro no site da amazon decepcionada</t>
-  </si>
-  <si>
-    <t>primeira vez que uso esta pagina e a decepcao ta sendo total duplicaram meu pedido e tentei cancelar um deles e adivinhem so impossivel ainda que eles afirmam que temos a possibilidade de remover intens ou cancelar o pedido inteiro essa opcao nao existe ahhh e o numero de atencao ao cliente oferecido na pagina da amazon simplesmente nao existe decepcao total primeira e ultima vez que uso esta pagina pra comprar nao recomendo pra ninguem</t>
-  </si>
-  <si>
-    <t>principios verdadeiros mas discutidos de forma superficial e um tanto sensacionalista o autor cita a si mesmo em todo o livro subjacente tem uma conotacao religiosa parecendo antes proselitismo e pregacao moral</t>
-  </si>
-  <si>
-    <t>o livro nao agrega nada o que era para ser um desfecho digno do casal queridinho foi uma enchecao de linguica sem fim nao precisa disso</t>
-  </si>
-  <si>
-    <t>eles nao gastam com papel como pode um ebook custar tanto se tivesse mais barato todos iriam comprar e um livro incrivel mas nao vale o preco</t>
-  </si>
-  <si>
-    <t>achei o livro bem fraco esperava mais do final deste historia minha nota e 0 a autora deixou muito a desejar</t>
-  </si>
-  <si>
-    <t>venderam um produto que nao tinham para entrega me deu muita forca de cabeca para fazer estorno no meu cartao de credito</t>
-  </si>
-  <si>
-    <t>infelizmente um dos piores livros que eu ja li a escrita e imatura assim como sua autora contem historias totalmente confusas sobre a vida da kefera sem pe nem cabeca sem cronologia e organizacao a autora cria padroes sobre homens e mulheres totalmente sem fundamento e fala como se tivesse uma graaaaande experiencia de vida como se entendesse muito de relacionametos nos seus poucos 22 anos infeliz ideia quando decidiu escrever um livro</t>
-  </si>
-  <si>
-    <t>ha anos que os leitores reclamam da pessima formatacao deste livro de narloch por que a amazon nao providencia uma reformatacao e a envia para os que ja adquiriram o ebook incompreensivel avaliacoes de dois meses atras ainda relatam o mesmo problema e por que os clientes continuam comprando se tem acesso a essas criticas misterios</t>
-  </si>
-  <si>
-    <t>como pode esse livro esta esse preco para o kindle isso e um absurdo alem de ser um pedido para nao comprarmos</t>
-  </si>
-  <si>
-    <t>um tanto ruim e sem inaginacao como a trilogia que gerou esse livro nao entendo como essa trilogia gerou ate um filme que nao assisti claro uma vez que li os livros</t>
-  </si>
-  <si>
-    <t>comprei o livro mas ele nao vai para a biblioteca um absurdo isso espero solucao para meu problema agora tento novamente e fala que ja comprei</t>
-  </si>
-  <si>
-    <t>livro bem escrito porem te deixa triste e de baixissimo astral sabe uma leitura que vc se sente mal depois pra que ler um livro assim nao indico e nao volto a ler livros desta autora</t>
-  </si>
-  <si>
-    <t>quando vi tantas avaliacoes corri para ler mas que livro chato tudo bem que tinha um aviso sobre cenas de sexo e linguagem chula mas deveria dizer que isso e em 90 da historia sem deixar realmente um enredo bom acontecer sexo sexo e sexo isso se resume a esse livro a historia ultrapassa o cliche na verdade nem tem historia so sexo que parece ter sido retirado dos livros anteriores dela e colocado nesse mudando o nome dos personagens falta inovacao a escrita da autora e boa se nao fosse mais do mesmo seria um livro bom</t>
-  </si>
-  <si>
-    <t>este livro nao e um trabalho serio parece escrito por uma crianca muito mimada que nao gostou do que viu nas aulas de historia e queria mudar o roteiro para que os brancos fossem bonzinhos do inicio ao final</t>
-  </si>
-  <si>
-    <t>paguei para embrulho de presente e veio sem embrulho e uma micharia mas voces nao cumpriram com acordo</t>
-  </si>
-  <si>
-    <t>primeiramente e super previsivel e o romance nao e bom por mais que esse nao seja o foco eu sempre vou votar em um romance bem construido e alias nao e nada que eu ja nao tenha visto antes e um pouco de tudo a selecao trono de vidro jogos vorazes e agora estou me perguntando porque algumas pessoas amaram o livro porque para mim pessoalmente foi muito ruim e sinto que nao ha nada de verdadeiramente especial pra ter aquele hype todo</t>
-  </si>
-  <si>
-    <t>um poco de contradicao por parte do autor comparacoes simplistas e sem sentido comparando a vida e as acoes com a de bukowsk</t>
-  </si>
-  <si>
-    <t>este livro resume o felipe neto contradicao depois que perdeu o posto de maior youtuber do brasil este rapaz apela para qualquer coisa desde consiga likes e inscritos no seu canal cade aquele rapaz que tinha e expressava sua opiniao hoje ta pintando cabelo por like obviamente um livro desnecessario pois a trajetoria dele pode ser vista de graca basta acessar o canal que o deixou famoso e assistir aos videos de criticas as modinhas teens estas que hoje ele proprio faz parte vale ressaltar que a trajetoria em questao deve ser bm curta pois o livro tem 64 paginas conforme detalhado neste site e aposto que utilizaram uma fonte enorme para dar mais volume a obra a editora do livro errou feio por nao ter lancado o livro com capa alternativa com varias cores de cabelo assim eles aumentariam as vendas que e o que eles realmente querem lancando esse tipo de material</t>
-  </si>
-  <si>
-    <t>como disseram em outra avaliacao o livro deveria se chamar como a esquerda se disfarca de regime democratico e como nao suportamos a alternancia de poder na parte historia e analitica o livro ate chega a ter algum conteudo interessante mas na conclusao faz associacoes com argumentos fracos e claramente tendenciosos o inicio e o final do livro sao cansativos conteudo muito repetitivo a traducao possui uma serie de erros de escrita como grampiar ou em no final de 2017 decepcao</t>
-  </si>
-  <si>
-    <t>chamar isso de filosofia e brincar com a nossa inteligencia</t>
-  </si>
-  <si>
-    <t>infelizmente o livreiro observou a entrega do endereco anterior qe foi entregue pelo correio a uma pessoa que nao foi identificada assim nao recebi o livro e nao sei onde foi parar acho um descaso o que aconteceu infelizmente minha irma nao recebeu o livro desde o inicio de maio espero que amazon possa fazer algo</t>
-  </si>
-  <si>
-    <t>achei que se tratava de um livro com historias adequadas para o publico infantil vou trocar no primeiro sebo que encontrar</t>
-  </si>
-  <si>
-    <t>escolhi o livro por acreditar no tema e indicacao de uma amiga que segue o que ele propoe minha critica maior e ao modo ostensivamente egoista que ele foi escrito se e um livro de autoajuda ok ja li muitos bons sensiveis mas tudo leva a crer que se voce quer mudar de vida aproveitar melhor seu tempo seria para ser vitorioso rico poderosamente um profissional taleu nao me pauto pela minha profissao somente e meu interesse genuino na tecnica seria para ajudar a equilibrar todas tarefas que gostaria de fazer unindo bemestar emocionalfisico e a sensacao de dever cumprido portanto achei agressivo o foco no sucesso algo que pode ser subliminar e ao mesmo tempo o excesso de citacoes de livros de possiveis amigos do autor me dando a impressao de uma panelinha parecida com o que se ve atualmente na internet onde todo mundo e o bonzao em alguma coisa baixe meu ebook que eu vou te mostrar passoapassoainda devo reler o livro e anotar algumas coisas mas a sensacao e que o caminho que explorarei sozinho vale mais haja visto que todo o livro volta ele pra um cadastro em um site certamente algo que eu nao pedi e nem quis quando adquiri o livro talvez eu tenha vindo com muita expectativa mas nao creio</t>
-  </si>
-  <si>
-    <t>livro prosaico as primeiras paginas sao legais o resto e pura inutilidade de autoajuda a prova do que um bom titulo pode fazer por uma obra prosaica</t>
-  </si>
-  <si>
-    <t>descreve um relacionamento abusivo que e bem diferente de dominacao no sexo o fato de o protagonista masculino arthur estar confuso com seus sentimentos nao justifica a forma brutal que usa para se relacionar com maiana a persegue na faculdade puxandoa pelo braco com violencia inicia sexo com ela sem seu consentimento mesmo quando ela diz nao querer a segurando com brutalidade sem dar opcao pra ela se negar ao sexo maiana inocente acaba cedendo pois se excita quando ele a manipula isso nao me excita e nao deve ser considerado normal tambem existe estupro entre um casal ha quem goste nao gostei arthur nao me conquistou o sexo e forcado as vezes parece estar presente excessivamente para encher pagina a perda da virgindade da protagonista e nada realista nada realista mesmo indico outros livros da autora como o calor do sertao continua e pecadora sao 5 estrelas</t>
-  </si>
-  <si>
-    <t>sinceramente tambem estou tentando entender como podem colocar um livro digital por um preco absurdo destes comprei um kindle recentemente e adoraria ter esta obra nele mas por um preco abusivo destes nao compro nem aqui nem na china e so dei uma estrela porque nao e possivel dar 0</t>
-  </si>
-  <si>
-    <t>nao ha justificativa para o preco absurdo deste ebook se bobear voce acha mais barato o livro impresso do que essa versao digital uma pena gostaria muito de ter o ebook</t>
-  </si>
-  <si>
-    <t>acompanho o canal me poupe ha um bom tempo muito antes de ter 300k inscritos dito isso ao ler o livro me deparei com o roteiro de boa parte dos videos do canal contando as mesmas historias falando as mesmas coisas nao sao inuteis mas tambem nao foi a inovacao ou o inedito que eu esperava alem disso me chateou muito o fato de que boa parte do livro e uma especie de propaganda pessoal da autora isso nao seria um problema porque de fato ela tem muitos meritos mas depois de ver tantas entrevistas assistir aos videos e ler o livro percebemos que nao sao bem assim vide a historia de ter comprado o apto a vista comprou mas 30 dele e nao sozinha inteiro como suas narrativas nos induzem pode parecer bobagem mas me senti um pouco enganada o que de certo modo faz com que a autora perca um pouco da minha admiracao no mais uma boa leitura com algumas dicas uteis</t>
-  </si>
-  <si>
-    <t>surreal este preco depois reclamam que ebook nao vende no brasil ridiculo ainda mais quando se compara com o preco dos eua sem chance</t>
-  </si>
-  <si>
-    <t>prefiro ler roger scruton von mises flavio gordon porque de autores esquerdistas ja estou ate na tampa</t>
-  </si>
-  <si>
-    <t>o box veio em pessimo estado com cola aparente nas bordas e varios amassados fiquei extremamente decepcionada pela aparencia dos livros</t>
-  </si>
-  <si>
-    <t>talvez a traducao antiga tivesse um pouco mais de charme e musicalidade o que conferia uma certa elegancia ao livro sinto que isso infelizmente nao foi mantido nessa edicao do ebook</t>
-  </si>
-  <si>
-    <t>primeiramente meu pedido nem veiomas me reembolsaram</t>
-  </si>
-  <si>
-    <t>boa noite nao gostei da qualidade das folhas super finasse consegue ver as letras da outra paginamias pelo custo coloquei 2 estrelas mais nao compraria novamentedevido a qualidade das folhas como havia informado</t>
-  </si>
-  <si>
-    <t>sucumbi as inumeras indicacoes deste livro e nao poderia estar mais arrependida gente que livro ruim impossivel defender um paragrafo sequer dessa estoria o enredo e tosco demais a narrativa e lenta de dar sono e o romance entre tanlim e feyre convence tao pouco que nem precisava estar ali nao acreditem nas resenhas que dizem o comeco e lento mesmo mas da metade pra frente fica sensacional ele e irritantemente ruim da primeira a ultima pagina</t>
-  </si>
-  <si>
-    <t>pedi o livro baseado na promocao q era de graca nao autorizo esta compra ajustem o site de vcs para evitar tais desconfortos doria tem razao e vcs nao cumpriram com a palavra nao aceito pagar r2100 por este livro pois estava informando q era gratuito</t>
-  </si>
-  <si>
-    <t>a superficialidade das dicas fogem totalmente da proposta 40 principios que o tornarao mais inteligente do livro esperava muito mais inclusive da escrita</t>
-  </si>
-  <si>
-    <t>uma historia forcadasem sentido e sem criatividade</t>
-  </si>
-  <si>
-    <t>conseguir ler um pouco do livro e nesse pouco se ve outros angulos de verdades historicas ao qual estudamos na escola e muitas concepcoes sobre a america latina foram mudadas apos o livro mas como disse consegui ler um pouco a diagramacao esta tao ruim baguncada disforme que foi ao menos no meu caso continuar a leitura pior que o livro se encontra perdido meses e a loja nao corrige o problema o que teoricamente e muito facil de se fazer bastava uma atualizacao minha unica estrela nao e referente ao conteudo do livro e sim sobre este problema relatado e e dado no intuito de que a loja veja e corrija o problema</t>
-  </si>
-  <si>
-    <t>tanta demagogia e meias verdades que nao consegui passar dos primeiros capitulos deve funcionar para quem nao tem o menor senso critico</t>
-  </si>
-  <si>
-    <t>livro super prolixo e pouco proveitoso nao recomendo a leitura fala fala fala e nada outros amigos meus tambem se decepcionaram com a leitura deste livro</t>
-  </si>
-  <si>
-    <t>decepcao logo quando comecou a sitar kal maxi perdi a vontade de continuar a leitura o marxismo e responsavel pelas maiores tragedias humanitarias desde o seculo xix em resumo eu quero menos max mais misse</t>
-  </si>
-  <si>
-    <t>historia maluca e que nao te leva a nada uma viagem sem sentido</t>
-  </si>
-  <si>
-    <t>achei bem fraco e muito religioso para o tema ao qual se propoe desanima a leitura</t>
-  </si>
-  <si>
-    <t>os fatos historicos relatados dao conhecimento de uma epoca do desenrolar de fatos mundiais que nao vivi e o livro embora romanceado o que nao deixa a leitura enfadonha trouxe vasto conhecimento dos fatos a forma relatada e seu conteudo prendem a pessoa a leitura o livro e importante e deveras interessante</t>
-  </si>
-  <si>
-    <t>no inicio achei interessante a garota virgem que se apaixona por um homem mais experiente depois foi ficando cansativo as cenas sao petitiivas</t>
-  </si>
-  <si>
-    <t>esperava muito mais achei o livro muito juvenil o vocabulario e fraco as poesias muito simplorias fiquei desapontada com a indicacao recebida</t>
-  </si>
-  <si>
-    <t>pessoal voces poderiam ajustar a fonte para justificada apos a alteracao aumento as estrelas nada contra a serie acho a excelente a historia</t>
-  </si>
-  <si>
-    <t>nao atende a proposta de forma refencial e tecnica aparenta um conjunto de dicas com mencoes comuns a grandes nomes um sucesso de mmarketing e fracasso literario</t>
-  </si>
-  <si>
-    <t>decepcao total com o livro nem pareciam o casal dos 4 primeiros livros a autora perdeu a mao livro totalmente chato</t>
-  </si>
-  <si>
-    <t>a pior leitura que ja tive ha ha ha ha ha ha ha ah ha ha ha ha ha ha</t>
-  </si>
-  <si>
-    <t>gostaria apenas de enfatizar que a nota dada nesta avaliacao nao diz respeito ao livro mas ao preco praticado nao ha justificativa para que um livro digital seja vendido ao mesmo preco do impresso considero que alguns propositos da venda de livros digitais estejam sendo distorcidos aqui</t>
-  </si>
-  <si>
-    <t>tao ruim quanto o primeiro fonte nao justificada e erros de portugues e uma pena pq o livro e muito bom</t>
-  </si>
-  <si>
-    <t>nao vale a pena comprar pelo preco proposto na promocao 99 reais muito caro compre a versao fisica bem melhor</t>
-  </si>
-  <si>
-    <t>apesar do enorme apreco que tenho por mario s cortella acredito que ele tenha sido pouco visionario ao escrever este livro o livro mostra uma realidade unilateral dentro das empresas</t>
-  </si>
-  <si>
-    <t>boa noite qd minha leitura chegou no quinto livro percebi que havia muitas paginas repetidas cortando a historia estou chateada e espero uma solucao</t>
-  </si>
-  <si>
-    <t>nao gostei achei bem diferente do que esperava e as poesias sao fortes e negativas nao falam sobre amor sobre a vida de um jeito bom fala de uma forma dolorosa e assustadora</t>
-  </si>
-  <si>
-    <t>fiz a compra do produto e chegou tudo certo conforme o prazo no entanto a embalagem do plastico ja estava aberta e o livro numero 7 da serie chegou rasgado conforme as fotos irei devolver o produto e ja fiz uma nova compra dele caso nessa nova compra o produto chegue danificado novamente irei devolver tambem infelizmente nao poderei prazentear minha namorada no natal a tempo uma vez que a nova compra somente chegara dia 27</t>
-  </si>
-  <si>
-    <t>este livro foi doado em uma promocao da amazon brasileira que doava um livro se respondesse a um questionario a minha surpresa e que cobraram e bem caro pelo servico nunca mais compro nada na amazon brasileira nao e confiavel</t>
-  </si>
-  <si>
-    <t>decidi ler o livro por conta do filme imaginei que como o filme foi otimo assumi que o livro seria fantastico tolo engano leitura muito chata descricoes extremamente cansativas de repleto de dialogos enfadonho nao consegui terminar o livro abandonei antes da metade definitivamente nao recomendo</t>
-  </si>
-  <si>
-    <t>chegou com o canto amassado</t>
-  </si>
-  <si>
-    <t>o livro desnuda alguns mitos que envolvem a historia do brasil deve ser lido com cautelas mas e divertido e instigante ja a apresentacaoe com folga o pior livro que ja li no kindle capitulos atravessados descontinuidade uma porcaria se puder fuja da versao digital e compre o livro fisico espero que a amazon tenha um pouco de respeito com seus leitores e corrija a apresentacao da versao digital ja que agora e possivel atualizar as obras uma pena</t>
-  </si>
-  <si>
-    <t>a edicao esta meio confusa e mal diagramada arrependime de adquirila e acredito que ha opcoes melhores da mesma obra</t>
-  </si>
-  <si>
-    <t>o minimo que voce precisa saber para nao ser idiota e entender que o autor desse livro e um teorico da conspiracao teorias sem pe nem cabeca com argumentos tirados das vozes da cabeca do autor e autores da extremadireita americana e europeia nao recomendo</t>
-  </si>
-  <si>
-    <t>minha sobrinha pediu de aniversario mas vou acabar tendo que comprar outra coisa e uma verdadeira porcaria parece uma revista de banca daquelas sem a minima qualidade</t>
-  </si>
-  <si>
-    <t>parece mais o trabalho de um garoto de escola primaria querendo impressionar o professor fraco mal elaborado nao informa nada mostrase a leguas da promessa do titulo</t>
-  </si>
-  <si>
-    <t>nao cheguei a completar a leitura do livro tendo em vista de que nao aborda o tema a que se propoe adequadamente steven levitsky e um conhecido opositor de donald trump e a sua abordagem apresenta um forte vies ideologico a realidade e que esse autor se julga o dono da verdade no que concerne ao conceito de democracia e clara a sua visao obtusa sobre os novos tempos e seu proposito doutrinador nao recomendo a sua leitura</t>
-  </si>
-  <si>
-    <t>minha primeira experiencia de compras com a amazon foi pessima comprei o item para presentear e me atentei a data limite de chegada para que conseguisse entregalo na data correta os livros nao chegaram na data e o que e pior a transportadora atualizou o status para entregue dois dias antes da data limite muito provavelmente para nao perder a pontuacao ate entendo que essa epoca o fluxo de entregas aumentam mas considero falta de respeito ao consumidor omitir o real status de entrega ao produto infelizmente todos os comentarios positivos que ouvi da amazon para mim nao se concretizaram e eu provavelmente nao voltarei a comprar</t>
-  </si>
-  <si>
-    <t>o volume 5 esta com erro tem impressao tem paginas duplicada e outras faltando</t>
-  </si>
-  <si>
-    <t>bela edicao livro bem escrito com personagens bem elaborados entretanto ao meu ver e um livro que nao acrescenta e nem bem entrete em alguns momentos fiquei curiosa mas num geral achei a historia fraca e delongada nao e o tipo de livro que mexe comigo e optei por algo bem raro que foi interromper a leitura bem antes da metade do livro decidi ler sem saber nada da historia nem do filme nada mesmo mas vi que a historia nao ia se desenvolver muito mesmo e entao fui para as ultimas paginas acho que se tuvesse lido choraria no final porem no meu ponto de vista nao recomendo</t>
-  </si>
-  <si>
-    <t>leitura para adolescentes pobre em detalhes aborda tema serissimo que exige orientacao e assessoria especializada de psiquiatra especializado o que foi pobremente abordado o autor e excelente em descricao de emocoes momentaneas e a leitura e facil mas achei o livro depressivo bom para reflexao</t>
-  </si>
-  <si>
-    <t>o livro e ultrapassado mesmo como ficcao do inicio do seculo passado a linguagem e prolixa e como ficcao deixa muito a desejar principalmente comparandose com o que temos hoje estou tambem decepcionado com a amazon porque este livro deveria ter sido um brinde assim foi oferecido e no entretanto foi cobrado junto com os outros dois livros comprados rubens almeida</t>
-  </si>
-  <si>
-    <t>livro com um monte de cliches mas com pouco conteudo pratico em termos de tecnica de aprendizagem dispensavel e na linha autoajuda vazia</t>
-  </si>
-  <si>
-    <t>tentei mas nao deu nao gosto de abandonar leitura mas esse nao desceu o enredo e feito so de palavrao e sexo a mocinha e tao grosseira e boca suja que eu me senti constrangida e envergonhada por ela queria ter o poder de entrar no livro rs e dar umas aulas de comportamento e educacao para a coitada obs capa engana muito bonita e atrativa mas so serve para camuflar o manual de palavroes</t>
-  </si>
-  <si>
-    <t>tao contraditorio que parece ter sido escrito por um adolescente incrivel como alguem com experiencia em escrever nao perceba a falta de coesao entre as ideias do livro comeca se posicionando como uma especie de anti auto ajuda e acaba sendo o auto ajuda mais pesado que eu ja li pontos pelo estilo dinamico da escrita e por em alguns momentos no meio do amontoado caotico de ideias conseguir fazer o leitor refletir vale a pena a leitura so nao deve ser uma prioridade de escolha e muito menos ser considerado ao pe da letra</t>
-  </si>
-  <si>
-    <t>o autor tenta mostrar outro lado do livro buscando referencias bibliograficas que contrariem as tradicionais mas as referencias que o autor usa sao unicas e ele quer usar como prova um livro radical que quer acusar os negros de serem culpados pela propria escravidao desmerecer as invencoes e artistas brasileiros qualificando ingleses e americanos ao nivel de reis e herois alem do autor citar alguns radicais politicos de direita como referencia e para finalizar o livro o autor poderia ter falado de alguma qualidade nacional resolveu alfinetar os comunistas perda de tempo</t>
-  </si>
-  <si>
-    <t>o minimo e nao ler esse livro</t>
-  </si>
-  <si>
-    <t>querem que seus filhos se desenvolvam entao nao compre essa porcaria o autor e pessimo o conteudo nao e relevante deem livros de verdade aos seus filhos</t>
-  </si>
-  <si>
-    <t>e um livro so de exemplos os exemplos sao repetitivos leitura pesada entediante e muito marketing para os americanos autor fez a juncao de pesquisas somente</t>
-  </si>
-  <si>
-    <t>vetusto tanto quanto o proprio autor comprar um livro do sofista olavo de carvalho nos dias de hoje faz parte do surto de estupidez coletiva que sufoca a sociedade brasileira e chamalo de filosofo e a maior incongruencia da historia pobre sim filosofica do brasil mas e um bom livro para aqueles fanaticos que nao entendem de filosofia e pretendem piorar ainda mais suas vagas nocoes</t>
-  </si>
-  <si>
-    <t>muito fraco e previsivel a pista atraves do qual o assassino e descoberto e patetica so um idiota manteria aquela prova junto a si sem a menor necessidade muito fraco mesmo a protagonista ser tao palerma e irritante talvez se justificasse se a trama fosse elaborada e instigante mas isso esta longe de acontecer</t>
-  </si>
-  <si>
-    <t>o livro e lindissimo perfeito maravilhoso mas fiquei triste com a entrega a jacket veio amassada na parte superior sao danos que nao tem como reparar tambem ha uma marca uma linha vertical como se alguma coisa pesada tivesse ficado em cima do meu livro marcando a jacket e a capa dura nao sei se o problema aconteceu na entrega ou se o livro ja estava assim quando embalaram fato e que os plasticos de protecao estavam apenas na parte superior da caixa e nao em volta dos livros que encomendei um outro livro tambem veio amassado porem nao liguei muito pois nao e valioso como esta versao ilustrada de pedra filosofal sinceramente nao sei se comparei a proxima edicao ilustrada na amazon as vezes vale a pena pagar mais caro porem comprar na loja fisica atestando as condicoes do produto</t>
-  </si>
-  <si>
-    <t>se quer ler sobre habitos existem outros livros melhores e mais interessantes talvez pelo preco voce possa ate arriscar mas tempo e mais que dinheiro va em frente o dinheiro e tempo sao seus</t>
-  </si>
-  <si>
-    <t>desculpe amazon mas nao existe justificativa para o alto preco deste ebook livro maravilhoso a um preco exploratorio infelizmente este vou deixar ai na estante virtual</t>
-  </si>
-  <si>
-    <t>estou louca para ler este livro mas enquanto nao arrumarem a formatacao nao o farei por que ainda nao o fizeram se todos estao pedindo a mesma coisa</t>
-  </si>
-  <si>
-    <t>macante fantasioso uma ficcao vista pelo retrovisor nao tive paciencia de seguir depois da metade lida talvez leitores com gosto pela arqueologia e historia antiga possa se deleitar com o texto</t>
-  </si>
-  <si>
-    <t>aceito bem chato de ler no formato de emails e sms parei no meio achei bem superficial nao vale a pena</t>
-  </si>
-  <si>
-    <t>esse livro e cheio de afirmacoes sem embasamento se voce acrrdita em mensagens do tipo vai a luta deus ajuda a quem cedo madrugadaessas coisas pode encarar o livro no meu caso buscava algo mais cientifico</t>
-  </si>
-  <si>
-    <t>eu esperava um livro mais profundo pelas altas avaliacoes e comentarios em geral porem achei um livro muito raso parece q voce esta lendo o diario do autor o livro passa uma boa mensagem porem para quem ja leu varios livros de autoajuda vai achar esse livro muito superficial</t>
-  </si>
-  <si>
-    <t>livro com linguagem muito rebuscada o que complica um pouco o entendimento fala basicamente de fisica esperava mais me decepcionou um pouco</t>
-  </si>
-  <si>
-    <t>foi meu primeiro contato literario com o autor e achei o livro bastante superficial nao acrescentou muita informacao nova</t>
-  </si>
-  <si>
-    <t>autor confunde tecnicas de coaching com religiao pregando para influenciar os desesperados por ajuda a ponto de reproduziir textos religiosos conhecidos dizendo q foi ele q escreveu uma verdadeira mentira uma pena as pessoas se permitirem essa lavagem cerebral</t>
-  </si>
-  <si>
-    <t>o conteudo do livro e excepcionalmente excelente entretanto ao receber o livro vi que o mesmo esta com a capa querendo deteriorar alem de alguns amassos na capa solicitei a compra de um livro novo mas nestas condicoes ficou duvidosa</t>
-  </si>
-  <si>
-    <t>escrita pobre e traducao ruim com personagens e dialogos superficiais o cenario historico ao menos e interessante muito inferior ao pilares da terra</t>
-  </si>
-  <si>
-    <t>comecou boa istoria no meio um pouco enrolado depois embromou no romance dando para saber que o violao era o irmao mais novo mas e diferente com um mundo novo so por isso deve ser expandindo espero que o proximo seja melhor</t>
-  </si>
-  <si>
-    <t>comprei um box do harry potter era para ser entregue ontem pois recebi um email dizendo que nao foi possivel entregar por endereco nao localizado e era para eu entrar em contato com a empresa como eu irei entrar em contato com a amazon se nem telefone me passaram e o email que eu respondo nao dar certo vcs poderiam ligar para nos quando tiverem alguma duvida para que pedem telefone entao aguardo resposta de vcs meu email e carolbran31gmailcom</t>
-  </si>
-  <si>
-    <t>atender a que expectativa so decepcao desde do dia 1105 que fiz o pedido pela primeira vez o produto foi extraviado e pela segunda vez que peco ate agora nao veio</t>
-  </si>
-  <si>
-    <t>minha experiencia com ebook foi frustrante no kindle o livro nao tem cor agradavel o que desestimula a leitura parece uma xerox</t>
-  </si>
-  <si>
-    <t>traducao pessima os editores e o tradutor deviam se envergonhar sugiro aos interessados buscar uma edicao mais antiga em portugues em sebo ou adquirir a obra numa boa traducao em ingles</t>
-  </si>
-  <si>
-    <t>o livro e excelente um classico assim que ficar mais barato sera possivel compralo a editora precisa ajustar os precos</t>
-  </si>
-  <si>
-    <t>quando comprei esse livro fui com uma grande expectativa e ela nao foi atendida muito menos superada ate certa parte o livro e bacana e quase como um tapa na cara me identifiquei com algumas situacoes que o autor passou mas depois a leitura vai ficando repetitiva e cansativa</t>
-  </si>
-  <si>
-    <t>muita enrolacao pra um enredo fraquissimo alem de muitos jargoes e palavras repetidas nao recomendo</t>
-  </si>
-  <si>
-    <t>o box veio rasgado e nao gostei porque parece descaso com o que eu comprei as extremidades toda machucada nao gostei do estado que chegou mas os livros sao bonitos</t>
-  </si>
-  <si>
-    <t>muito fraco e passional visao distorcida de direita nao leria se soubesse que era tao ruim deveria se chamar guia politicamente incorreto e tacanha</t>
-  </si>
-  <si>
-    <t>recebi o produto avariado no mesmo dia reclamei e a alfa livro trata com descaso a situacao querendo que eu arce com o custo de envio do livro avariado e se quer postou outro livro o que era um presente para minha esposa virou um martilho</t>
-  </si>
-  <si>
-    <t>o livro e uma coletanea de obviedades e o cortella nao consegue se aprofundar nos temas que propoe em cada capitulo deixando o leitor esperando por alguma conclusao que nunca chega ou mesmo por algum insight que faca o livro valer a pena o livro e tambem mal escrito paragrafos curtos e um uso abusivo do ponto final tornam a leitura travada e dificultam estabelecer uma coesao entre as frases ganhei de presente e nao recomendo</t>
-  </si>
-  <si>
-    <t>simadorei o livro vou continuar a comprar o resto da colecao muito emocionante esta sagamelhor di que a minisserie da tv</t>
-  </si>
-  <si>
-    <t>a traducao dessa edicao nao chega aos pes da ja disponivel pela companhia das letras penguim de autoria de frederico lourenco esta sim uma grande traducao dos grandes classicos de homero</t>
-  </si>
-  <si>
-    <t>bom livro baseado em um so tema mas parece um resumo o valor e proporcional ao conteudo e o pior ter que completar os caracteres nesta avaliacao</t>
-  </si>
-  <si>
-    <t>extremamente insatisfeita com a amazon meu box veio amassado na lateral e nao ha opcao para troca apenas devolucao e reembolso do valor agora esta mais caro e vou ficar ou com produto danificado ou sem produto tentei entrar em contato pela pagina no facebook e nao auxiliaram e todas as paginas redirecionam apenas para devolucao e reembolso</t>
-  </si>
-  <si>
-    <t>mais uma coletanea de artigos de jornal escritos por um autor que tem pretensoes tremendas de ser um filosofo mas que notoriamente comete erros espantosos generalizacoes primarias e distorcoes absurdas os preguicosos mentais tem em olavo um grande mestre pois com difamacoes em cursos on line ele os desencoraja de ler os autores progressistas que contradizem suas ideias imanentistas gerando um pensamento unico requentado do macartismo da guerrafria</t>
-  </si>
-  <si>
-    <t>se voce ainda nao leu nenhum livro sobre a reflexao de proposito de vida pode ser que voce goste bastante desse livro para quem ja leu outros livros para quem ja esta no processo de autoconhecimento ele acrescenta quase nada</t>
-  </si>
-  <si>
-    <t>perdi tempo de ler autores como gilberto freyre boris fausto lilia moritz schwarcz camara cascudo dentre outros para ler esse livro fraquissimo e sem conteudo so serve como panfleto de bolsonaro</t>
-  </si>
-  <si>
-    <t>impossivel ler ja pedi varias vezes nao sei mais o que fazer para receber o livro lamentavel lamentavel lamentavel lamentavel</t>
-  </si>
-  <si>
-    <t>os mapas estao em pessima qualidade e os capitulos estao formatados errados eg posicao 4192 como pode um livro digital conter erros de formtacao isso e texto nenhum mega problema com css ou outra linguagem texto</t>
-  </si>
-  <si>
-    <t>amei devorei esses livros em 15 dias gostei mais do tons escuros e de liberdade que venha agora o grey</t>
-  </si>
-  <si>
-    <t>nao consegui enxergar os personagens as atitudes nao condizem com o que passamos a apreciar e reconhecer nos 7 livros originais da serie</t>
-  </si>
-  <si>
-    <t>muito chato ate parece que se eu fizer tudo aquilo estarei rico e feliz</t>
-  </si>
-  <si>
-    <t>apesar de alguns insights bacanas o livro e bem fraco e superficial usa metaforas baseadas na biblia deus e etc o que eu acho bem limitante parte de pressupostos meio falaciosos parece meio direcionado para o publico familia crista de classe media se quiser algo mais substancial indico os livros do anthony robbins sobre pnl ja da pra formar uma boa base sobre o assunto</t>
-  </si>
-  <si>
-    <t>minha avaliacao negativa nao vai para a obra de tolkien e sim para a qualidade do livronas avaliacoes de clientes alguem afirma que o livro tem folhas amareladas e se baseando nessa informacao que eu ate entao achava confiavel comprei o livro sem nem pensar duas vezespara minha surpresa hoje recebi o livro com folhas brancas de pessima qualidade quase transparentes agora imagine alguem miope lendo um livro com folhas brancas e uma fonte pequena eu tenho a sensacao de estar lendo uma bula de remedio no entanto quando contatei a amazon sobre o meu problema eles foram muito atenciosos e prestativos me deram toda uma assistencia e indicaram meios de resolver meu casoinfelizmente nenhuma das solucoes me pareceu totalmente adequada e me geraria mais transtornos e perda de um tempo que eu nao tenho mas o atendimento que recebi da amazon foi extremamente respeitosoeu sugiro que a amazon coloque essa informacao sobre a qualidadecor das paginas e etc que pelo menos pra mim e crucial na hora de comprar um livro na descricao dos recursos dos livros fisicos ou que implemente uma opcao de perguntar directamente a ela esses e outros detalhes antes de realizar a compra</t>
-  </si>
-  <si>
-    <t>o box premium e lindo porem a caixa veio rasgada fiquei com desgosto e quero trocar apenas esse box os outros livros vieram de forma adequada</t>
-  </si>
-  <si>
-    <t>nao sei como as pessoas conseguiram gostar de um livro sem graca como esse me desculpe quem gostou mas achei sem graca pra caramba</t>
-  </si>
-  <si>
-    <t>francamente e uma falta de respeito sem igual com o consumidor brasileiro nao estou falando da amazon embora meu box tenha vindo com sua extremidade com um baita amassado o que poderia ter sido evitado se embalassem com mais cuidado mas minha critica e para a harpercollins aparentemente essa editora nao tem o menor senso do que significa controle de qualidade o box e fragil facil de ceder ao peso dos livros o primeiro volume do meu veio com o forro da capa mal colado o que significa que ele ficou com umas ondulacoes horriveis o volume dois veio ainda pior pois tem paginas faltando isso mesmo um livro com paginas em branco onde deveria haver a continuidade da estoria somente o volume 3 e 4 se salvaram isso porque nao fiz uma inspecao mais minuciosa poderia falar tambem de paginas amacadas e falhas na questao grafica mas nao quero estender mais esse comentario moral da historia estou devolvendo meu box pra amazon pegarei meu dinheiro de volta e com ele talvez eu compre as versoes em capa dura de bolso da zahar que alem de ter uma qualidade impecavel e um trabalho grafico e traducao primorosos ainda me da o gostinho de apreciar ilustracoes originais da epoca e por um preco mais do que justo pelo que e oferecido</t>
-  </si>
-  <si>
-    <t>uma pena a editora ter se prestado a esse desservico social e cultural literalmente se vendeu a escoria desse pais irmao neto veiome ate ansia a boca so de escrever isso</t>
-  </si>
-  <si>
-    <t>bobagem 70 do livro sao descricoes de trepadas a estoria em si e igual a milhares a personagem feminina ainda existe a masculina e um sonho de adolescente</t>
-  </si>
-  <si>
-    <t>muito cansativa a leitura muitas voltas para falar algo mais especifico nao achei muito didatico porque o autor fala muito de si e das proprias experiencias nao recomendo</t>
-  </si>
-  <si>
-    <t>infelizmente a autora parece ter cedido as exigencias cinematograficas ja que esse livro claramente e uma historia intermediaria deixando margem pra um terceiro livro nao seria um problema se o livro nao fosse 50 enrolacao e a historia com uma tematica completamente desinteressante o oposto do primeiro livro</t>
-  </si>
-  <si>
-    <t>um titulo impactante mas o conteudo nem tanto o autor chegar a ser bem redundante em varios capitulos com temas evasivos e pouca coerencia ou seja corrobora o que outros escritores ja disseram enfim nao gostei da forma de abordagem do autor por vezes o achei infantil</t>
-  </si>
-  <si>
-    <t>infelizmente a historia e fraca e a escrita deixa a desejar nao foi nada do que eu esperava nao leria novamente</t>
-  </si>
-  <si>
-    <t>o conteudo e muito bom uma forma diferente de reconhecer fatos e personagens historicos mas o que deveria ser uma experiencia agradavel e divertida tornase extremamente penosa em razao da formatacao da obra algumas paginas ficam com fundo preto ha principio achei que fosse algum defeito do meu kindle mas apos ler outras postagens verifiquei que tratavase de problema do ebook o conteudo e truncado havendo constantes trocas de paginas e as notas que na versao impressa deveriam enriquecer o texto no ebook tornam a compreensao penosa e confusa estou extremamente decepcionado com o resultado e mais ainda com a amazon por apos tantas criticas ao material manter o produto a venda em sua loja sem as devidas e necessarias correcoes nada mais justo seria se a empresa interrompesse a comercializacao do livro ate efetuar as correcoes desta forma comeco a me arrepender de ter adquirido o kindle pois nao vejo muito futuro para a amazon no brasil seguindo como esta</t>
-  </si>
-  <si>
-    <t>esse e o tipico livro que te passa uma cartilha caso voce deseje jogar o jogo do mundo dos negocios um teatro onde vc finge ser o que nao e para ter o minimo de empecilhos possiveis</t>
-  </si>
-  <si>
-    <t>deveria se chamar dale o contador de historias o livro e um amontoado de historias e pouquissimas dicas o livro e tao bem falado quando eu fui le me decepcionei</t>
-  </si>
-  <si>
-    <t>uma promocao onde daria de graca o livro digital para ser lido na verdade me cobrou equivocadamente r 2100 entrei o contato para pedir o meu estorno e nunca mais comprarei neste site pelo desconforto oportunista que esta me causando</t>
-  </si>
-  <si>
-    <t>nao tem nada indicando que e em portugues de portugal ja e o terceiro ebook que comprei que acontece isso horrivel</t>
-  </si>
-  <si>
-    <t>a meu ver nao entendo o motivo de este livro estar entre os mais vendidos um conto feito em forma de poesias com uma visao feminina alguns poemas tem frases de impacto e palavras interessantes e marcantes porem em diversos trechos nao vi apelo</t>
-  </si>
-  <si>
-    <t>o hype que envolve esse livro e enorme entao eu decidi tentar mesmo sendo inspirado pelo conto da bela e a fera primeiro a escrita a autora tenta soar inteligente e tenta tanto que chega a ser ridiculo faz uso de palavras dificeis so por isso e muitas vezes parece que nem sabe o que esta escrevendo ja que muitas vezes acaba sendo redundante nos adjetivos e substantivos que usa alem disso repete muitas vezes as mesmas coisas parece que queria atingir um numero minimo de paginas tamanha a quantidade de vezes que faz isso segundo a historia em si fantasia e fantasia mas a maior parte das interacoes entre os personagens e extremamente forcada e irreal honestamente tudo vem facil para a personagem que consegue todas as respostas que quer so perguntando terceiro e o pior de todos feyre a personagem principal e narradora e simplesmente insuportavel se vitimiza o tempo todo mas fica se auto afirmando como uma garota forte considerando o seu background e o fato dela ter 19 anos em uma realidade comparavel a medieval era de se esperar uma idade mental e uma maturidade que ela nao chega nem perto de atingir varias pessoas argumentam que o livro ee uma presequencia para a historia em si que comeca no segundo livro mas acho ridiculo esse conceito de que preciso me torturar por 400 paginas para comecar a historia de fato</t>
-  </si>
-  <si>
-    <t>o conteudo do livro em si e bom as tecnicas e assuntos que ele aborda sao de fato muito importantes entretanto o livro tem uma abordagem de auto ajuda com generalizacoes sem sentido usando aquela abordagem prescritiva que promete 100 de sucesso a todos que seguirem as dicas magicas e infaliveis do livro simplificando demasiadamente o assunto o livro e mal escrito tambem confuso em algumas partes e a todo momento voce nao sabe se o autor esta falando de algo academicamente comprovado se existem estudos praticos se e opiniaoexperiencia pessoal ou se tem a ver com a fe dele sim existem varias opinioes religiosas inseridas junto ao texto enfim ruim nao dou nota 1 porque apesar de mal escrito o que o livro prescreve de fato e algo que funciona muito bem na imensa maioria dos casos e o brasileiro medio viveria muito melhor se seguisse as dicas</t>
-  </si>
-  <si>
-    <t>estou arrependido por ter comprado esse livro no formato digital gostaria de trocalo pelo formato em papel pois varias partes importantes do livro nao sao legiveis como o indice as referencias etc</t>
-  </si>
-  <si>
-    <t>a tecnologia do kindle e fantastica porem o livro e muito confuso nao segue uma ordem de um capitulo pro outro eu acredito que livro poderia ser melhorado de forma que fizesse mais sentido</t>
-  </si>
-  <si>
-    <t>em poucas palavras uma imensa perda de tempo e o que esse livro e nao consigo entender como este cara conseguiu impressionar tanta gente e se tornar conhecido por uma porcaria como essas sempre detestei autoajuda mas a fama desse livro me motivou a lelo para poder falar com conhecimento de causa e agora posso afirmar sem sombra de duvida que o titulo deveria ser como adular pessoas e se fazer de otario frente a elas siga esse livro a regra e tornese uma pessoa incrivelmente chata com tecnicas manjadas e enfadonhas de como tentar parecer alguem agradavel e legal quando na verdade seus interlocutores perceberao que voce so pode ser muito trouxa de agir assim serio se voce curte autoajuda va procurar outra coisa pra ler imagino que tenha algo melhor se voce nao curte autoajuda nem tente ler esse lixo nao vale os poucos reais que voce ira gastar com ele</t>
-  </si>
-  <si>
-    <t>o preco da versao digital deste livro e injustificavel pelo menos pra mim qual a vantagem de comprar este livro na versao digital a um preco tao abusivo</t>
-  </si>
-  <si>
-    <t>esperava um livro com tecnicas mas nao ha nada de tecnicas o autor compara o leitor varias vezes mostrando que quem esta lendo esse livro nao e um bom leitor joguei dinheiro fora pessimo livro por que nao se alcanca o objetivo proposto</t>
-  </si>
-  <si>
-    <t>livro de agradavel leitura bastante esclarecedor envolve o leitor e mostra nao so ao arte racional do assunto o autor se preocupa com a parte psicologica que envolve o dinheiro bom livro</t>
-  </si>
-  <si>
-    <t>pessoal achei pessimo esse livro terminei de ler quase vomitando de esforco pra concluir de tao ruim a leitura e pessima a historia muito chata nao recomendo a ninguem saiam dessa foi a primeira distopia que li e estou com o pe atras de ler outras duas que ja havia comprado para o kindle bom e isso e boa sorte para os aventureiros</t>
-  </si>
-  <si>
-    <t>para mim parece ser uma fanfiction muito mal escrita infelizmente me deixei levar pelo nome quando na verdade a autora dos livros de harry potter originais nem mesmo tocou ma historia deste apenas aprovouo os novos personagens sao mal apresentados e pouco desenvolvidos a historia e contraditoria com os livros originais e peca horrivelmente com a memoria dos personagens ja existentes alem disso me soou como preguicoso o jeito com o qual o autor jack thorne ao inves de criar um enredo original spoiler se apoia no enredo de calice de fogo e tambem em outros acontecimentos da serie original decepcionante</t>
-  </si>
-  <si>
-    <t>a caixa veio rasgada e os livros parecem usados</t>
-  </si>
-  <si>
-    <t>achei macante nao consegui avancar na leitura texto prolixo enfadonho uma pena gastar mais palavras para descrevelo perda de tempo</t>
-  </si>
-  <si>
-    <t>ganhei na compra do kindle nao e estilo de livro que gosto</t>
-  </si>
-  <si>
-    <t>jorge candeiras e o tradutor da versao portuguesa do livro e nao da versao brasileira mas a amazon vender no brasil um texto com portugues de portugal e nao avisar e desrespeito</t>
-  </si>
-  <si>
-    <t>nossa essa trilogia e a pior coisa que eu ja li junto de crepusculo que coisa tenebrosa livro enrolado cansativo nada intrigante decepcao</t>
-  </si>
-  <si>
-    <t>enganador nao vale dois reais falta de objetividade nao fala nada de tecnicas de leitura dinamica uma enrolacao sem limites como esse livro esta disponivel na amazon</t>
-  </si>
-  <si>
-    <t>comprei esse livro todo seu paguei a fatura e ate hoje o livro nao chegouquero meu livrooooo estou no aguarde a mais de sete meses</t>
-  </si>
-  <si>
-    <t>o livro fala de um contexto bastante interessante porem de maneira muito superficial poderia ter enriquecido com exemplos de como exercitar cada um dos pirncipios</t>
-  </si>
-  <si>
-    <t>parece um texto que foi rascunhado e vertido para formato de interpretacao em cinema repetitivo personalidade dos personagens distorcidas e pobres solucoes simplistas para as interacoes pessoais</t>
-  </si>
-  <si>
-    <t>so recomendo sapiens provavelmente as previsoes de homo deus nunca se concretizaraok chato e muito frustrante tudo ali e pura idealizacao de um futuro impossivelk</t>
-  </si>
-  <si>
-    <t>fraco e o final e ridiculo o 1984 e otimo esse decepcionou</t>
-  </si>
-  <si>
-    <t>acho uma ofensa a quem vai para universidade estudar ciencias sociais filosofia historia sociologia ou antropologia ser nivelado por baixo a um charlatao iletrado que sequer terminou o primario que se auto intitula filosofo e ainda e chamado por gente bocal de maior filosofo da direita para quem estuda de verdade que le livros de verdade que vai as fontes e um acinte</t>
-  </si>
-  <si>
-    <t>perdeu toda credibilidade se realmente fosse inteligente nao diria issoo caso do queiroz e um factoide ridiculo forcado artificioso inventado so para queimar a reputacao do flavio bolsonaro nao merece dois minutos de atencao numa radio do interior o que merece atencao e merece ser denunciado isto sim e a operacao midiatica que o criou</t>
-  </si>
-  <si>
-    <t>um livro que se disfarca com piadinhas e que nao passa de uma versao grotesca e distorcida da historia feito por uma pessoa com muito rancor e mesquinho naorecomendo nem para inimigo oculto</t>
-  </si>
-  <si>
-    <t>o livro e incompleto acaba em 110444 sendo que o diario dela foi escrito ate 010844 alguem pode explicar pq nao informam que e incompleto</t>
-  </si>
-  <si>
-    <t>pessoal eu nunca fiz avaliacao de livro nenhum mas esse mereceu eu pensei que o livro fosse muito bom por causa do tanto de avaliacoes boas que ele teve mas o autor enrola demais ele fica mais que a metade do livro falando da vida dele e dizendo que o milagre do amanha e a resposta que o milagre do amanha e a solucao que ele sabe o que pode ser bom para voce e que isso revolucionou a vida dele ele fica nisso e continua nisso por um longo tempo parece aquelas propagandas chatas de televisao ele enrola tanto que no final das contas a pessoa fica cansada demais de todos os metodos que ele tenta mostrar ah e ele corta toda hora o raciocinio falando que voce deve entrar no site para pegar as complementacoes das ideias que ele apresenta e mais facil ver uma resenha do livro do que comprar</t>
+    <t>Previsão</t>
+  </si>
+  <si>
+    <t>livro concentra politica americana duas decadas esperava menos apresentasse analise disputas internas dentro dois partidos estados unidos discussao relacao duas agremiacoes sociedade melhor apresentasse novas instigantes faz gasta energia toa tentativa comparar hugo chavez politica americana peca superficialidade lugares comuns espera encontrar trabalho academico ruim</t>
+  </si>
+  <si>
+    <t>boa estoria quis ler filme epoca fez sucesso experiencia usar glossario versao digital massacrante marcar pagina voltar onde parado linguagem diferente causava confusao tentar continuar leitura vezes reler frase paragrafo</t>
+  </si>
+  <si>
+    <t>gostei livro tempo traz narrativas cenarios eua bolsa americana util iniciando assunto</t>
+  </si>
+  <si>
+    <t>confuso</t>
+  </si>
+  <si>
+    <t>comprei livro logo comprar garota exemplar sair qualquer filmes apareceu recomendacao parecidos ge interessante garota trem falta plot obvio menos mim consegui descobrir pessoa responsavel logo capitulos resto esperar pra pessoa desmascarada ge contrario recebia golpe atras golpe</t>
+  </si>
+  <si>
+    <t>venho meio expressar desapontamento loja virtual amazon aguardando disponibilidade livro harry potter ordem fenix meses produto continua indisponivel mais explicacoes prazos disponibilidade adquiri kindle praticidade produto atendeu expectativas conta tipo produto indisponivel</t>
+  </si>
+  <si>
+    <t>baixei livro motivada alto indice avaliacoes positivas confesso encontrei nada novo livros hot seguem linha homem fodao grosseiro frio garota inexperiente envolve apaixona perdidamente rapidamente pressao humilhacao sexo sexo sexo traicao mocinha sofrendo fodao regenerando felizes enfim nada novo</t>
+  </si>
+  <si>
+    <t>pessima editora comprei livro tempo resolvi ler livro dezenas paginas fora ordem trocar expirou prazo troca entrei contato editora fui ignorado respondem emails varias reclamacoes problema internet aconselho comprar confira paginas assim receber livro voce perder prazo 7 dias troca amazon tera suporte leya atualizacao 2411 recebi novo livro hoje esperava leya enviar novo exemplar resolvi manter reclamacao original alerta pra futuros compradores mantenho criticas relacao atendimento leitor parte editora melhorar entretanto apesar demora falta contato consegui livro novo defeito edicao nova livro menor fonte tao escura edicoes anteriores acho novo formato dificulta leitura fonte bem enviarei fotos nova edicao breve</t>
+  </si>
+  <si>
+    <t>tristeza venho redigir resenha infelizmente amazon pecou venda box fotografia box aparece livros pretos acabamento dourados recebi livros preto pessimo acabamento prata livro veio defeito fabrica cola grudada 2 livros capa descascando 1 especificada momento compra folhas eram brancas orelha compra justifica maxima popular barato sai caro</t>
+  </si>
+  <si>
+    <t>cansativo kindle facilita idas vindas dicionario nadsat texto perde voce ficar procurando onde parou leitura</t>
+  </si>
+  <si>
+    <t>avaliar recebi livro hoje constato valor correspondente debitado cartao favor entrar contato possamos corrigir erroaguardo</t>
+  </si>
+  <si>
+    <t>livro ficou super famoso rapidamente brasil achei leitura meio cansativa monotona tipo livro voce le fim obrigacao</t>
+  </si>
+  <si>
+    <t>disposto comprar livro posicionamento oficial amazon denuncias indicando ebook versao pirata sequer traduzida jorge candeias nada disposto jogar dinheiro fora material baixa qualidade decepciona possibilidade estar acontecendo loja amazon aqui brasil parecendo descuido descaso falta seriedade consumidores brasileiros</t>
+  </si>
+  <si>
+    <t>possivel vi narnia amazon cobrando quase r7000 senhor aneis quase r10000 nada justificar valores obras duvida incriveis precos co afronta</t>
+  </si>
+  <si>
+    <t>pra mim ser chamado livro garota idade suficiente pra contar interessante util basta canal infantil videos bobos</t>
+  </si>
+  <si>
+    <t>assisti videos palestras ministradas autor resolvi comprar ebook ratificar opiniao mais generalistas plantao</t>
+  </si>
+  <si>
+    <t>significa best seller algo vendeu implica necessariamente qualidade bom marketing suficiente tornar qualquer besteirol best seller livro passa mais entretenimento ler admiravel mundo novo cheio falacias contradicoes apela cientifico sustentar posicoes questionaveis busca conhecimento perda tempo ler opinioes pessoais autor frustrado mundo</t>
+  </si>
+  <si>
+    <t>percepcao autor investimento totalmente especulativa conselhos assemelham apostas</t>
+  </si>
+  <si>
+    <t>livro cansativo escrita redundante usa exemplos explora detalhes desnecessarios alem paginas apenas referencias apendice 13 paginas expressar ideia principal assim seria cansativo trabalha marketing paciencia boa leitura faz parte publico recomendo</t>
+  </si>
+  <si>
+    <t>comprei tratar edicao luxoo casopaguei quase r 8000 edicao normal custa menos r 4000 gato lebre</t>
+  </si>
+  <si>
+    <t>mosteiro italiano 1300 ocorreram mortes misteriosas ex inquisidor comeca investigar ocorrencias misterio envolvendo biblioteca obras cujo acesso apenas monge bibliotecario investigador acessa biblioteca descobre forma labirinto diversos artificios complicar uso espelhos deformam imagem incensos geram alucinacoes passagens vento geram ruidos macabros livro longas citacoes latim traduzidas alem digressoes filosoficas agregam interesse valor estoria relacoes monges modo misterio apresentado prendem atencao leitor entediante</t>
+  </si>
+  <si>
+    <t>livro tamanho tamanho padrao livro bolso informacao site achei correto gosto livros tamanho padrao devido tamanho letra</t>
+  </si>
+  <si>
+    <t>esperava mais livro diria livro ruim li ouvi criei expectativa enorme senti frustada</t>
+  </si>
+  <si>
+    <t>livro mostra somente atos praticados alemanha autor esquece citar atos praticados stalin mostra polonia paladina bondade mencionando tratado versalhes sistematica expansao territorio polonia territorio alemao</t>
+  </si>
+  <si>
+    <t>livro bom perdido vida maioria conselhos voltados perfil tipico pessoas casadas filhos trabalham acima peso maioria exemplos conselhos sentido tracar metas mentalizar situacoes voce emagrecendo melhorar relacionamento familiasao referencias livro parece maior parte exemplos autor citacoes pseudocienciatem parte palavras podem alterar estrutura molecular agua conselhos bons questao autoresponsabilidade assumir responsabilidade reacao acontecimentos vida</t>
+  </si>
+  <si>
+    <t>linguagem livro bastante vulgar assunto repetido cansativamente bullying filha 11 anos parou terceiro capitulo largou edicao opiniao prende atencao recomendo</t>
+  </si>
+  <si>
+    <t>livreco escrito editoras interessadas vender qualquer porcaria fanaticos seguidores cabeca tonta escreveu livreco editoras contratam ghosts writers escreverem trocam nome</t>
+  </si>
+  <si>
+    <t>leitura rapida dicas expandirmos percepcao ideias acoes acredito final agregado algo minimo</t>
+  </si>
+  <si>
+    <t>tendencioso pensamentos extremadireita classifica minorias vitimismos coloca culpa ptismolulismocomunismo ignorancia ler autor perigoso brasileiros flertar tais preconceitos irao reafirmados</t>
+  </si>
+  <si>
+    <t>desde harry potter lancado escuto reclamarem editora rocco livros papel branco suja letras douradas saiam facilmente total inconsistencia fontes formatacoes livros livros sumario etc parece pottermore seguiu fielmente cartilha rocco publicar livro edicao digital parece pegaram pdf encontraram internet converteram ferramenta email amazon traducao diferencas original impresso nomes fundadores casas mantidos original ingles inves traducoes nomes publicados godrico grifinoria salazar sonserina ruim varias palavras erros eg chamala tocala semelhantes diversas vezes perdem acentuacao hifen ficando chamala tocala palavras obviamente hifenizadas texto impresso aparecem cortadas texto corrido alem dois livros enigma principe camara secreta texto justificado alinhado esquerda simplesmente inaceitavel comparar publicacoes livros pottermore ingles situacao fica pior formatacao absolutamente impecavel aqui graca unlimited teria realmente dinheiro mal gasto felizmente demais livros li preco assinatura justificaram valor mes</t>
+  </si>
+  <si>
+    <t>livro bom existe mudareu esperava mais livro vi comentariosmas gosto gosto</t>
+  </si>
+  <si>
+    <t>livro ficccao destopica visa criticar certas ameacas percebidas autora feministas seguranca liberdade mulheres percepcao maior parte tempo preconceituosa desconectada realidade resultado livro repleto paranoia melhor hipoteses desnuda mente doentia autora pior fere integridade psiquica leitor mais provavelmente leitora levando conta trata peca propaganda qualidade narrativa estilo autora temos algo necessariamente ruim certamente nada digno nota tipo livro lido forcado goela abaixo mocas inocentes impressionaveis principalemente academicos engajados luta feminista midia conivente fantasias destrutivas importante alertar pessoas mal livros tipo causam alertar pessoas reais riscos presentes sociedade especial mulheres preferem apontar dedo monstros inexistentes desperdicando tempo recursos preciosos colocando ai sim pessoas especial mulheres risco</t>
+  </si>
+  <si>
+    <t>voce vendedor esqueca livro fraco ilusorio autor lamentavelmente sabe falar vendas praticas utopicas levarao lugar fraco</t>
+  </si>
+  <si>
+    <t>gostei livro achei conceitos claros autor exemplos pessoais utiliza linguagem meio desbocada esperava algo mais voltado meio corporativo verdade metade volta mais analise relacionamentos valores pessoais</t>
+  </si>
+  <si>
+    <t>livro record oxida menos tres meses olha livros bem guardados conservados papel maioria edicoes record jeito fica amarelo tempo triste</t>
+  </si>
+  <si>
+    <t>autor escreve experiencia pessoal precisou passar amadurecer vida exemplos bem repetitivos tenta mostrar felicidade encontra valorizar realmente importa vida deixar lado importa novidade nada novo discurso apesar linguagem cotidiana informal expressar torna trechos engracados</t>
+  </si>
+  <si>
+    <t>pessima traducao livro partes livro faltando comprado kindlefrases sentido eou claramente partes faltantes livro papel acontecido online sim</t>
+  </si>
+  <si>
+    <t>achei livro suspense interessante prendeu comeco fim recomendo apesar desejar final mais justo</t>
+  </si>
+  <si>
+    <t>solicitei pagamento 4 x fui detales fatura cartao proximo pagamento veio surpresa desagradavel lancaram valor total compra inves 1 parcela primeira uktima compro site amazon decepcionada</t>
+  </si>
+  <si>
+    <t>primeira uso pagina decepcao ta total duplicaram pedido tentei cancelar adivinhem impossivel afirmam temos possibilidade remover intens cancelar pedido inteiro opcao existe ahhh numero atencao cliente oferecido pagina amazon simplesmente existe decepcao total primeira uso pagina pra comprar recomendo pra</t>
+  </si>
+  <si>
+    <t>principios verdadeiros discutidos forma superficial tanto sensacionalista autor cita livro subjacente conotacao religiosa parecendo proselitismo pregacao moral</t>
+  </si>
+  <si>
+    <t>livro agrega nada ser desfecho digno casal queridinho enchecao linguica fim precisa</t>
+  </si>
+  <si>
+    <t>gastam papel ebook custar tanto tivesse mais barato iriam comprar livro incrivel vale preco</t>
+  </si>
+  <si>
+    <t>achei livro bem fraco esperava mais final historia nota 0 autora deixou desejar</t>
+  </si>
+  <si>
+    <t>venderam produto entrega deu forca cabeca estorno cartao credito</t>
+  </si>
+  <si>
+    <t>infelizmente piores livros li escrita imatura assim autora contem historias totalmente confusas vida kefera pe cabeca cronologia organizacao autora cria padroes homens mulheres totalmente fundamento fala tivesse graaaaande experiencia vida entendesse relacionametos 22 anos infeliz ideia decidiu escrever livro</t>
+  </si>
+  <si>
+    <t>anos leitores reclamam pessima formatacao livro narloch amazon providencia reformatacao envia adquiriram ebook incompreensivel avaliacoes dois meses atras relatam problema clientes continuam comprando acesso criticas misterios</t>
+  </si>
+  <si>
+    <t>livro preco kindle absurdo alem ser pedido comprarmos</t>
+  </si>
+  <si>
+    <t>tanto ruim inaginacao trilogia gerou livro entendo trilogia gerou filme assisti claro li livros</t>
+  </si>
+  <si>
+    <t>comprei livro vai biblioteca absurdo espero solucao problema tento novamente fala comprei</t>
+  </si>
+  <si>
+    <t>livro bem escrito deixa triste baixissimo astral sabe leitura vc sente mal pra ler livro assim indico volto ler livros autora</t>
+  </si>
+  <si>
+    <t>vi tantas avaliacoes corri ler livro chato bem aviso cenas sexo linguagem chula dizer 90 historia deixar realmente enredo bom acontecer sexo sexo sexo resume livro historia ultrapassa cliche verdade historia sexo parece retirado livros anteriores colocado nesse mudando nome personagens falta inovacao escrita autora boa mais seria livro bom</t>
+  </si>
+  <si>
+    <t>livro trabalho serio parece escrito crianca mimada gostou viu aulas historia queria mudar roteiro brancos bonzinhos inicio final</t>
+  </si>
+  <si>
+    <t>paguei embrulho presente veio embrulho micharia voces cumpriram acordo</t>
+  </si>
+  <si>
+    <t>primeiramente super previsivel romance bom mais foco vou votar romance bem construido alias nada visto selecao trono vidro jogos vorazes perguntando pessoas amaram livro mim pessoalmente ruim sinto nada verdadeiramente especial pra hype</t>
+  </si>
+  <si>
+    <t>poco contradicao parte autor comparacoes simplistas sentido comparando vida acoes bukowsk</t>
+  </si>
+  <si>
+    <t>livro resume felipe neto contradicao perdeu posto maior youtuber brasil rapaz apela qualquer desde consiga likes inscritos canal cade rapaz expressava opiniao hoje ta pintando cabelo like obviamente livro desnecessario trajetoria ser vista graca basta acessar canal deixou famoso assistir videos criticas modinhas teens hoje faz parte vale ressaltar trajetoria questao ser bm curta livro 64 paginas conforme detalhado neste site aposto utilizaram fonte enorme dar mais volume obra editora livro errou feio lancado livro capa alternativa varias cores cabelo assim aumentariam vendas realmente querem lancando tipo material</t>
+  </si>
+  <si>
+    <t>disseram avaliacao livro chamar esquerda disfarca regime democratico suportamos alternancia parte historia analitica livro chega conteudo interessante conclusao faz associacoes argumentos fracos claramente tendenciosos inicio final livro cansativos conteudo repetitivo traducao possui serie erros escrita grampiar final 2017 decepcao</t>
+  </si>
+  <si>
+    <t>chamar filosofia brincar inteligencia</t>
+  </si>
+  <si>
+    <t>infelizmente livreiro observou entrega endereco anterior qe entregue correio pessoa identificada assim recebi livro sei onde parar acho descaso aconteceu infelizmente irma recebeu livro desde inicio maio espero amazon possa algo</t>
+  </si>
+  <si>
+    <t>achei tratava livro historias adequadas publico infantil vou trocar sebo encontrar</t>
+  </si>
+  <si>
+    <t>escolhi livro acreditar tema indicacao amiga segue propoe critica maior modo ostensivamente egoista escrito livro autoajuda ok li bons sensiveis leva crer voce quer mudar vida aproveitar melhor tempo seria ser vitorioso rico poderosamente profissional taleu pauto profissao somente interesse genuino tecnica seria ajudar equilibrar tarefas gostaria unindo bemestar emocionalfisico sensacao cumprido portanto achei agressivo foco sucesso algo ser subliminar tempo excesso citacoes livros possiveis amigos autor dando impressao panelinha parecida ve atualmente internet onde mundo bonzao baixe ebook vou mostrar passoapassoainda devo reler livro anotar sensacao caminho explorarei sozinho vale mais haja visto livro volta pra cadastro site certamente algo pedi quis adquiri livro expectativa creio</t>
+  </si>
+  <si>
+    <t>livro prosaico primeiras paginas legais resto pura inutilidade autoajuda prova bom titulo obra prosaica</t>
+  </si>
+  <si>
+    <t>descreve relacionamento abusivo bem diferente dominacao sexo fato protagonista masculino arthur estar confuso sentimentos justifica forma brutal usa relacionar maiana persegue faculdade puxandoa braco violencia inicia sexo consentimento querer segurando brutalidade dar opcao pra negar sexo maiana inocente acaba cedendo excita manipula excita ser considerado normal existe estupro casal goste gostei arthur conquistou sexo forcado vezes parece estar presente excessivamente encher pagina perda virgindade protagonista nada realista nada realista indico livros autora calor sertao continua pecadora 5 estrelas</t>
+  </si>
+  <si>
+    <t>sinceramente tentando entender podem colocar livro digital preco absurdo comprei kindle recentemente adoraria obra nele preco abusivo compro aqui china dei estrela possivel dar 0</t>
+  </si>
+  <si>
+    <t>justificativa preco absurdo ebook bobear voce acha mais barato livro impresso versao digital pena gostaria ebook</t>
+  </si>
+  <si>
+    <t>acompanho canal poupe bom tempo 300k inscritos ler livro deparei roteiro boa parte videos canal contando historias falando inuteis inovacao inedito esperava alem chateou fato boa parte livro especie propaganda pessoal autora seria problema fato meritos tantas entrevistas assistir videos ler livro percebemos bem assim vide historia comprado apto vista comprou 30 sozinha inteiro narrativas induzem parecer bobagem senti enganada certo modo faz autora perca admiracao mais boa leitura dicas uteis</t>
+  </si>
+  <si>
+    <t>surreal preco reclamam ebook vende brasil ridiculo mais compara preco eua chance</t>
+  </si>
+  <si>
+    <t>prefiro ler roger scruton von mises flavio gordon autores esquerdistas tampa</t>
+  </si>
+  <si>
+    <t>box veio pessimo estado cola aparente bordas varios amassados fiquei extremamente decepcionada aparencia livros</t>
+  </si>
+  <si>
+    <t>traducao antiga tivesse mais charme musicalidade conferia certa elegancia livro sinto infelizmente mantido edicao ebook</t>
+  </si>
+  <si>
+    <t>primeiramente pedido veiomas reembolsaram</t>
+  </si>
+  <si>
+    <t>boa noite gostei qualidade folhas super finasse consegue letras paginamias custo coloquei 2 estrelas mais compraria novamentedevido qualidade folhas havia informado</t>
+  </si>
+  <si>
+    <t>sucumbi inumeras indicacoes livro estar mais arrependida gente livro ruim impossivel defender paragrafo sequer estoria enredo tosco demais narrativa lenta dar sono romance tanlim feyre convence tao precisava estar ali acreditem resenhas comeco lento metade pra frente fica sensacional irritantemente ruim primeira pagina</t>
+  </si>
+  <si>
+    <t>pedi livro baseado promocao q graca autorizo compra ajustem site vcs evitar tais desconfortos doria razao vcs cumpriram palavra aceito pagar r2100 livro informando q gratuito</t>
+  </si>
+  <si>
+    <t>superficialidade dicas fogem totalmente proposta 40 principios tornarao mais inteligente livro esperava mais inclusive escrita</t>
+  </si>
+  <si>
+    <t>historia forcadasem sentido criatividade</t>
+  </si>
+  <si>
+    <t>conseguir ler livro nesse ve angulos verdades historicas estudamos escola concepcoes america latina mudadas livro consegui ler diagramacao tao ruim baguncada disforme menos caso continuar leitura pior livro encontra perdido meses loja corrige problema teoricamente facil bastava atualizacao unica estrela referente conteudo livro sim problema relatado dado intuito loja veja corrija problema</t>
+  </si>
+  <si>
+    <t>tanta demagogia meias verdades consegui passar capitulos funcionar menor senso critico</t>
+  </si>
+  <si>
+    <t>livro super prolixo proveitoso recomendo leitura fala fala fala nada amigos decepcionaram leitura livro</t>
+  </si>
+  <si>
+    <t>decepcao logo comecou sitar kal maxi perdi vontade continuar leitura marxismo responsavel maiores tragedias humanitarias desde seculo xix resumo quero menos max mais misse</t>
+  </si>
+  <si>
+    <t>historia maluca leva nada viagem sentido</t>
+  </si>
+  <si>
+    <t>achei bem fraco religioso tema propoe desanima leitura</t>
+  </si>
+  <si>
+    <t>fatos historicos relatados dao conhecimento epoca desenrolar fatos mundiais vivi livro embora romanceado deixa leitura enfadonha trouxe vasto conhecimento fatos forma relatada conteudo prendem pessoa leitura livro importante deveras interessante</t>
+  </si>
+  <si>
+    <t>inicio achei interessante garota virgem apaixona homem mais experiente ficando cansativo cenas petitiivas</t>
+  </si>
+  <si>
+    <t>esperava mais achei livro juvenil vocabulario fraco poesias simplorias fiquei desapontada indicacao recebida</t>
+  </si>
+  <si>
+    <t>pessoal voces ajustar fonte justificada alteracao aumento estrelas nada serie acho excelente historia</t>
+  </si>
+  <si>
+    <t>atende proposta forma refencial tecnica aparenta conjunto dicas mencoes comuns nomes sucesso mmarketing fracasso literario</t>
+  </si>
+  <si>
+    <t>decepcao total livro pareciam casal 4 livros autora perdeu mao livro totalmente chato</t>
+  </si>
+  <si>
+    <t>pior leitura tive ah</t>
+  </si>
+  <si>
+    <t>gostaria apenas enfatizar nota dada avaliacao respeito livro preco praticado justificativa livro digital vendido preco impresso considero propositos venda livros digitais estejam distorcidos aqui</t>
+  </si>
+  <si>
+    <t>tao ruim fonte justificada erros portugues pena pq livro bom</t>
+  </si>
+  <si>
+    <t>vale pena comprar preco proposto promocao 99 reais caro compre versao fisica bem melhor</t>
+  </si>
+  <si>
+    <t>apesar enorme apreco tenho mario s cortella acredito visionario escrever livro livro mostra realidade unilateral dentro empresas</t>
+  </si>
+  <si>
+    <t>boa noite qd leitura chegou quinto livro percebi havia paginas repetidas cortando historia chateada espero solucao</t>
+  </si>
+  <si>
+    <t>gostei achei bem diferente esperava poesias fortes negativas falam amor vida jeito bom fala forma dolorosa assustadora</t>
+  </si>
+  <si>
+    <t>fiz compra produto chegou certo conforme prazo entanto embalagem plastico aberta livro numero 7 serie chegou rasgado conforme fotos irei devolver produto fiz nova compra caso nova compra produto chegue danificado novamente irei devolver infelizmente poderei prazentear namorada natal tempo nova compra somente chegara dia 27</t>
+  </si>
+  <si>
+    <t>livro doado promocao amazon brasileira doava livro respondesse questionario surpresa cobraram bem caro servico mais compro nada amazon brasileira confiavel</t>
+  </si>
+  <si>
+    <t>decidi ler livro conta filme imaginei filme otimo assumi livro seria fantastico tolo engano leitura chata descricoes extremamente cansativas repleto dialogos enfadonho consegui terminar livro abandonei metade definitivamente recomendo</t>
+  </si>
+  <si>
+    <t>chegou canto amassado</t>
+  </si>
+  <si>
+    <t>livro desnuda mitos envolvem historia brasil ser lido cautelas divertido instigante apresentacaoe folga pior livro li kindle capitulos atravessados descontinuidade porcaria puder fuja versao digital compre livro fisico espero amazon respeito leitores corrija apresentacao versao digital possivel atualizar obras pena</t>
+  </si>
+  <si>
+    <t>edicao meio confusa mal diagramada arrependime adquirila acredito opcoes melhores obra</t>
+  </si>
+  <si>
+    <t>minimo voce precisa saber ser idiota entender autor livro teorico conspiracao teorias pe cabeca argumentos tirados vozes cabeca autor autores extremadireita americana europeia recomendo</t>
+  </si>
+  <si>
+    <t>sobrinha pediu aniversario vou acabar comprar verdadeira porcaria parece revista banca daquelas minima qualidade</t>
+  </si>
+  <si>
+    <t>parece mais trabalho garoto escola primaria querendo impressionar professor fraco mal elaborado informa nada mostrase leguas promessa titulo</t>
+  </si>
+  <si>
+    <t>cheguei completar leitura livro vista aborda tema propoe adequadamente steven levitsky conhecido opositor donald trump abordagem apresenta forte vies ideologico realidade autor julga dono verdade concerne conceito democracia clara visao obtusa novos tempos proposito doutrinador recomendo leitura</t>
+  </si>
+  <si>
+    <t>primeira experiencia compras amazon pessima comprei item presentear atentei data limite chegada conseguisse entregalo data correta livros chegaram data pior transportadora atualizou status entregue dois dias data limite provavelmente perder pontuacao entendo epoca fluxo entregas aumentam considero falta respeito consumidor omitir real status entrega produto infelizmente comentarios positivos ouvi amazon mim concretizaram provavelmente voltarei comprar</t>
+  </si>
+  <si>
+    <t>volume 5 erro impressao paginas duplicada faltando</t>
+  </si>
+  <si>
+    <t>bela edicao livro bem escrito personagens bem elaborados entretanto livro acrescenta bem entrete momentos fiquei curiosa geral achei historia fraca delongada tipo livro mexe comigo optei algo bem raro interromper leitura bem metade livro decidi ler saber nada historia filme nada vi historia ia desenvolver entao fui paginas acho tuvesse lido choraria final ponto vista recomendo</t>
+  </si>
+  <si>
+    <t>leitura adolescentes pobre detalhes aborda tema serissimo exige orientacao assessoria especializada psiquiatra especializado pobremente abordado autor excelente descricao emocoes momentaneas leitura facil achei livro depressivo bom reflexao</t>
+  </si>
+  <si>
+    <t>livro ultrapassado ficcao inicio seculo passado linguagem prolixa ficcao deixa desejar principalmente comparandose temos hoje decepcionado amazon livro brinde assim oferecido entretanto cobrado junto dois livros comprados rubens almeida</t>
+  </si>
+  <si>
+    <t>livro monte cliches conteudo pratico termos tecnica aprendizagem dispensavel linha autoajuda vazia</t>
+  </si>
+  <si>
+    <t>tentei deu gosto abandonar leitura desceu enredo palavrao sexo mocinha tao grosseira boca suja senti constrangida envergonhada queria entrar livro rs dar aulas comportamento educacao coitada obs capa engana bonita atrativa serve camuflar manual palavroes</t>
+  </si>
+  <si>
+    <t>tao contraditorio parece escrito adolescente incrivel experiencia escrever perceba falta coesao ideias livro comeca posicionando especie anti auto ajuda acaba auto ajuda mais pesado li pontos estilo dinamico escrita momentos meio amontoado caotico ideias conseguir leitor refletir vale pena leitura ser prioridade escolha menos ser considerado pe letra</t>
+  </si>
+  <si>
+    <t>autor tenta mostrar lado livro buscando referencias bibliograficas contrariem tradicionais referencias autor usa unicas quer usar prova livro radical quer acusar negros serem culpados escravidao desmerecer invencoes artistas brasileiros qualificando ingleses americanos nivel reis herois alem autor citar radicais politicos direita referencia finalizar livro autor falado qualidade nacional resolveu alfinetar comunistas perda tempo</t>
+  </si>
+  <si>
+    <t>minimo ler livro</t>
+  </si>
+  <si>
+    <t>querem filhos desenvolvam entao compre porcaria autor pessimo conteudo relevante deem livros verdade filhos</t>
+  </si>
+  <si>
+    <t>livro exemplos exemplos repetitivos leitura pesada entediante marketing americanos autor fez juncao pesquisas somente</t>
+  </si>
+  <si>
+    <t>vetusto tanto autor comprar livro sofista olavo carvalho dias hoje faz parte surto estupidez coletiva sufoca sociedade brasileira chamalo filosofo maior incongruencia historia pobre sim filosofica brasil bom livro fanaticos entendem filosofia pretendem piorar mais vagas nocoes</t>
+  </si>
+  <si>
+    <t>fraco previsivel pista assassino descoberto patetica idiota manteria prova junto menor necessidade fraco protagonista ser tao palerma irritante justificasse trama elaborada instigante longe acontecer</t>
+  </si>
+  <si>
+    <t>livro lindissimo perfeito maravilhoso fiquei triste entrega jacket veio amassada parte superior danos reparar marca linha vertical pesada tivesse ficado cima livro marcando jacket capa dura sei problema aconteceu entrega livro assim embalaram fato plasticos protecao apenas parte superior caixa volta livros encomendei livro veio amassado liguei valioso versao ilustrada pedra filosofal sinceramente sei comparei proxima edicao ilustrada amazon vezes vale pena pagar mais caro comprar loja fisica atestando condicoes produto</t>
+  </si>
+  <si>
+    <t>quer ler habitos existem livros melhores mais interessantes preco voce possa arriscar tempo mais dinheiro va frente dinheiro tempo</t>
+  </si>
+  <si>
+    <t>desculpe amazon existe justificativa alto preco ebook livro maravilhoso preco exploratorio infelizmente vou deixar ai estante virtual</t>
+  </si>
+  <si>
+    <t>louca ler livro arrumarem formatacao farei fizeram pedindo</t>
+  </si>
+  <si>
+    <t>macante fantasioso ficcao vista retrovisor tive paciencia seguir metade lida leitores gosto arqueologia historia antiga possa deleitar texto</t>
+  </si>
+  <si>
+    <t>aceito bem chato ler formato emails sms parei meio achei bem superficial vale pena</t>
+  </si>
+  <si>
+    <t>livro cheio afirmacoes embasamento voce acrrdita mensagens tipo vai luta deus ajuda cedo madrugadaessas encarar livro caso buscava algo mais cientifico</t>
+  </si>
+  <si>
+    <t>esperava livro mais profundo altas avaliacoes comentarios geral achei livro raso parece q voce lendo diario autor livro passa boa mensagem leu varios livros autoajuda vai achar livro superficial</t>
+  </si>
+  <si>
+    <t>livro linguagem rebuscada complica entendimento fala basicamente fisica esperava mais decepcionou</t>
+  </si>
+  <si>
+    <t>contato literario autor achei livro bastante superficial acrescentou informacao nova</t>
+  </si>
+  <si>
+    <t>autor confunde tecnicas coaching religiao pregando influenciar desesperados ajuda ponto reproduziir textos religiosos conhecidos dizendo q q escreveu verdadeira mentira pena pessoas permitirem lavagem cerebral</t>
+  </si>
+  <si>
+    <t>conteudo livro excepcionalmente excelente entretanto receber livro vi capa querendo deteriorar alem amassos capa solicitei compra livro novo condicoes ficou duvidosa</t>
+  </si>
+  <si>
+    <t>escrita pobre traducao ruim personagens dialogos superficiais cenario historico menos interessante inferior pilares terra</t>
+  </si>
+  <si>
+    <t>comecou boa istoria meio enrolado embromou romance dando saber violao irmao mais novo diferente mundo novo ser expandindo espero proximo melhor</t>
+  </si>
+  <si>
+    <t>comprei box harry potter ser entregue ontem recebi email dizendo possivel entregar endereco localizado entrar contato empresa irei entrar contato amazon telefone passaram email respondo dar certo vcs ligar tiverem duvida pedem telefone entao aguardo resposta vcs email carolbran31gmailcom</t>
+  </si>
+  <si>
+    <t>atender expectativa decepcao desde dia 1105 fiz pedido primeira produto extraviado segunda peco veio</t>
+  </si>
+  <si>
+    <t>experiencia ebook frustrante kindle livro cor agradavel desestimula leitura parece xerox</t>
+  </si>
+  <si>
+    <t>traducao pessima editores tradutor envergonhar sugiro interessados buscar edicao mais antiga portugues sebo adquirir obra boa traducao ingles</t>
+  </si>
+  <si>
+    <t>livro excelente classico assim ficar mais barato possivel compralo editora precisa ajustar precos</t>
+  </si>
+  <si>
+    <t>comprei livro fui expectativa atendida menos superada certa parte livro bacana quase tapa cara identifiquei situacoes autor passou leitura vai ficando repetitiva cansativa</t>
+  </si>
+  <si>
+    <t>enrolacao pra enredo fraquissimo alem jargoes palavras repetidas recomendo</t>
+  </si>
+  <si>
+    <t>box veio rasgado gostei parece descaso comprei extremidades machucada gostei estado chegou livros bonitos</t>
+  </si>
+  <si>
+    <t>fraco passional visao distorcida direita leria soubesse tao ruim chamar guia politicamente incorreto tacanha</t>
+  </si>
+  <si>
+    <t>recebi produto avariado dia reclamei alfa livro trata descaso situacao querendo arce custo envio livro avariado quer postou livro presente esposa virou martilho</t>
+  </si>
+  <si>
+    <t>livro coletanea obviedades cortella consegue aprofundar temas propoe capitulo deixando leitor esperando conclusao chega insight faca livro valer pena livro mal escrito paragrafos curtos uso abusivo ponto final tornam leitura travada dificultam estabelecer coesao frases ganhei presente recomendo</t>
+  </si>
+  <si>
+    <t>simadorei livro vou continuar comprar resto colecao emocionante sagamelhor di minisserie tv</t>
+  </si>
+  <si>
+    <t>traducao edicao chega pes disponivel companhia letras penguim autoria frederico lourenco sim traducao classicos homero</t>
+  </si>
+  <si>
+    <t>bom livro baseado tema parece resumo valor proporcional conteudo pior completar caracteres avaliacao</t>
+  </si>
+  <si>
+    <t>extremamente insatisfeita amazon box veio amassado lateral opcao troca apenas devolucao reembolso valor mais caro vou ficar produto danificado produto tentei entrar contato pagina facebook auxiliaram paginas redirecionam apenas devolucao reembolso</t>
+  </si>
+  <si>
+    <t>mais coletanea artigos jornal escritos autor pretensoes tremendas ser filosofo notoriamente comete erros espantosos generalizacoes primarias distorcoes absurdas preguicosos mentais olavo mestre difamacoes cursos on line desencoraja ler autores progressistas contradizem ideias imanentistas gerando pensamento unico requentado macartismo guerrafria</t>
+  </si>
+  <si>
+    <t>voce leu livro reflexao proposito vida ser voce goste bastante livro leu livros processo autoconhecimento acrescenta quase nada</t>
+  </si>
+  <si>
+    <t>perdi tempo ler autores gilberto freyre boris fausto lilia moritz schwarcz camara cascudo dentre ler livro fraquissimo conteudo serve panfleto bolsonaro</t>
+  </si>
+  <si>
+    <t>impossivel ler pedi varias vezes sei mais receber livro lamentavel lamentavel lamentavel lamentavel</t>
+  </si>
+  <si>
+    <t>mapas pessima qualidade capitulos formatados errados eg posicao 4192 livro digital conter erros formtacao texto mega problema css linguagem texto</t>
+  </si>
+  <si>
+    <t>amei devorei livros 15 dias gostei mais tons escuros liberdade venha grey</t>
+  </si>
+  <si>
+    <t>consegui enxergar personagens atitudes condizem passamos apreciar reconhecer 7 livros originais serie</t>
+  </si>
+  <si>
+    <t>chato parece fizer estarei rico feliz</t>
+  </si>
+  <si>
+    <t>apesar insights bacanas livro bem fraco superficial usa metaforas baseadas biblia deus etc acho bem limitante parte pressupostos meio falaciosos parece meio direcionado publico familia crista classe media quiser algo mais substancial indico livros anthony robbins pnl pra formar boa base assunto</t>
+  </si>
+  <si>
+    <t>avaliacao negativa vai obra tolkien sim qualidade livronas avaliacoes clientes afirma livro folhas amareladas baseando informacao entao achava confiavel comprei livro pensar duas vezespara surpresa hoje recebi livro folhas brancas pessima qualidade quase transparentes imagine miope lendo livro folhas brancas fonte tenho sensacao estar lendo bula remedio entanto contatei amazon problema atenciosos prestativos deram assistencia indicaram meios resolver casoinfelizmente nenhuma solucoes pareceu totalmente adequada geraria mais transtornos perda tempo tenho atendimento recebi amazon extremamente respeitosoeu sugiro amazon coloque informacao qualidadecor paginas etc menos pra mim crucial hora comprar livro descricao recursos livros fisicos implemente opcao perguntar directamente detalhes realizar compra</t>
+  </si>
+  <si>
+    <t>box premium lindo caixa veio rasgada fiquei desgosto quero trocar apenas box livros vieram forma adequada</t>
+  </si>
+  <si>
+    <t>sei pessoas conseguiram gostar livro graca desculpe gostou achei graca pra caramba</t>
+  </si>
+  <si>
+    <t>francamente falta respeito igual consumidor brasileiro falando amazon embora box extremidade baita amassado evitado embalassem mais cuidado critica harpercollins aparentemente editora menor senso significa controle qualidade box fragil facil ceder peso livros volume veio forro capa mal colado significa ficou ondulacoes horriveis volume dois veio pior paginas faltando livro paginas branco onde haver continuidade estoria somente volume 3 4 salvaram fiz inspecao mais minuciosa falar paginas amacadas falhas questao grafica quero estender mais comentario moral historia devolvendo box pra amazon pegarei dinheiro volta compre versoes capa dura bolso zahar alem qualidade impecavel trabalho grafico traducao primorosos gostinho apreciar ilustracoes originais epoca preco mais justo oferecido</t>
+  </si>
+  <si>
+    <t>pena editora prestado desservico social cultural literalmente vendeu escoria pais irmao neto veiome ansia boca escrever</t>
+  </si>
+  <si>
+    <t>bobagem 70 livro descricoes trepadas estoria igual milhares personagem feminina existe masculina sonho adolescente</t>
+  </si>
+  <si>
+    <t>cansativa leitura voltas falar algo mais especifico achei didatico autor fala experiencias recomendo</t>
+  </si>
+  <si>
+    <t>infelizmente autora parece cedido exigencias cinematograficas livro claramente historia intermediaria deixando margem pra terceiro livro seria problema livro 50 enrolacao historia tematica completamente desinteressante oposto livro</t>
+  </si>
+  <si>
+    <t>titulo impactante conteudo tanto autor chegar ser bem redundante varios capitulos temas evasivos coerencia corrobora escritores disseram enfim gostei forma abordagem autor vezes achei infantil</t>
+  </si>
+  <si>
+    <t>infelizmente historia fraca escrita deixa desejar nada esperava leria novamente</t>
+  </si>
+  <si>
+    <t>conteudo bom forma diferente reconhecer fatos personagens historicos ser experiencia agradavel divertida tornase extremamente penosa razao formatacao obra paginas ficam fundo preto principio achei defeito kindle ler postagens verifiquei tratavase problema ebook conteudo truncado havendo constantes trocas paginas notas versao impressa enriquecer texto ebook tornam compreensao penosa confusa extremamente decepcionado resultado mais amazon tantas criticas material manter produto venda loja devidas necessarias correcoes nada mais justo seria empresa interrompesse comercializacao livro efetuar correcoes forma comeco arrepender adquirido kindle vejo futuro amazon brasil seguindo</t>
+  </si>
+  <si>
+    <t>tipico livro passa cartilha caso voce deseje jogar jogo mundo negocios teatro onde vc finge ser minimo empecilhos possiveis</t>
+  </si>
+  <si>
+    <t>chamar dale contador historias livro amontoado historias pouquissimas dicas livro tao bem falado fui le decepcionei</t>
+  </si>
+  <si>
+    <t>promocao onde daria graca livro digital ser lido verdade cobrou equivocadamente r 2100 entrei contato pedir estorno mais comprarei neste site desconforto oportunista causando</t>
+  </si>
+  <si>
+    <t>nada indicando portugues portugal terceiro ebook comprei acontece horrivel</t>
+  </si>
+  <si>
+    <t>entendo motivo livro estar mais vendidos conto forma poesias visao feminina poemas frases impacto palavras interessantes marcantes diversos trechos vi apelo</t>
+  </si>
+  <si>
+    <t>hype envolve livro enorme entao decidi tentar inspirado conto bela fera escrita autora tenta soar inteligente tenta tanto chega ser ridiculo faz uso palavras dificeis vezes parece sabe escrevendo vezes acaba redundante adjetivos substantivos usa alem repete vezes parece queria atingir numero minimo paginas tamanha quantidade vezes faz segundo historia fantasia fantasia maior parte interacoes personagens extremamente forcada irreal honestamente vem facil personagem consegue respostas quer perguntando terceiro pior feyre personagem principal narradora simplesmente insuportavel vitimiza tempo fica auto afirmando garota forte considerando background fato 19 anos realidade comparavel medieval esperar idade mental maturidade chega perto atingir varias pessoas argumentam livro ee presequencia historia comeca segundo livro acho ridiculo conceito preciso torturar 400 paginas comecar historia fato</t>
+  </si>
+  <si>
+    <t>conteudo livro bom tecnicas assuntos aborda fato importantes entretanto livro abordagem auto ajuda generalizacoes sentido usando abordagem prescritiva promete 100 sucesso seguirem dicas magicas infaliveis livro simplificando demasiadamente assunto livro mal escrito confuso partes momento voce sabe autor falando algo academicamente comprovado existem estudos praticos opiniaoexperiencia pessoal fe sim existem varias opinioes religiosas inseridas junto texto enfim ruim dou nota 1 apesar mal escrito livro prescreve fato algo funciona bem imensa maioria casos brasileiro medio viveria melhor seguisse dicas</t>
+  </si>
+  <si>
+    <t>arrependido comprado livro formato digital gostaria trocalo formato papel varias partes importantes livro legiveis indice referencias etc</t>
+  </si>
+  <si>
+    <t>tecnologia kindle fantastica livro confuso segue ordem capitulo pro acredito livro ser melhorado forma fizesse mais sentido</t>
+  </si>
+  <si>
+    <t>palavras imensa perda tempo livro consigo entender cara conseguiu impressionar tanta gente tornar conhecido porcaria detestei autoajuda fama livro motivou lelo falar conhecimento causa afirmar sombra duvida titulo ser adular pessoas otario frente siga livro regra tornese pessoa incrivelmente chata tecnicas manjadas enfadonhas tentar parecer agradavel legal verdade interlocutores perceberao voce ser trouxa agir assim serio voce curte autoajuda va procurar pra ler imagino algo melhor voce curte autoajuda tente ler lixo vale reais voce ira gastar</t>
+  </si>
+  <si>
+    <t>preco versao digital livro injustificavel menos pra mim vantagem comprar livro versao digital preco tao abusivo</t>
+  </si>
+  <si>
+    <t>esperava livro tecnicas nada tecnicas autor compara leitor varias vezes mostrando lendo livro bom leitor joguei dinheiro fora pessimo livro alcanca objetivo proposto</t>
+  </si>
+  <si>
+    <t>livro agradavel leitura bastante esclarecedor envolve leitor mostra arte racional assunto autor preocupa parte psicologica envolve dinheiro bom livro</t>
+  </si>
+  <si>
+    <t>pessoal achei pessimo livro terminei ler quase vomitando esforco pra concluir tao ruim leitura pessima historia chata recomendo saiam primeira distopia li pe atras ler duas havia comprado kindle bom boa sorte aventureiros</t>
+  </si>
+  <si>
+    <t>mim parece ser fanfiction mal escrita infelizmente deixei levar nome verdade autora livros harry potter originais tocou ma historia apenas aprovouo novos personagens mal apresentados desenvolvidos historia contraditoria livros originais peca horrivelmente memoria personagens existentes alem soou preguicoso jeito autor jack thorne inves criar enredo original spoiler apoia enredo calice fogo acontecimentos serie original decepcionante</t>
+  </si>
+  <si>
+    <t>caixa veio rasgada livros parecem usados</t>
+  </si>
+  <si>
+    <t>achei macante consegui avancar leitura texto prolixo enfadonho pena gastar mais palavras descrevelo perda tempo</t>
+  </si>
+  <si>
+    <t>ganhei compra kindle estilo livro gosto</t>
+  </si>
+  <si>
+    <t>jorge candeiras tradutor versao portuguesa livro versao brasileira amazon vender brasil texto portugues portugal avisar desrespeito</t>
+  </si>
+  <si>
+    <t>trilogia pior li junto crepusculo tenebrosa livro enrolado cansativo nada intrigante decepcao</t>
+  </si>
+  <si>
+    <t>enganador vale dois reais falta objetividade fala nada tecnicas leitura dinamica enrolacao limites livro disponivel amazon</t>
+  </si>
+  <si>
+    <t>comprei livro paguei fatura hoje livro chegouquero livrooooo aguarde mais sete meses</t>
+  </si>
+  <si>
+    <t>livro fala contexto bastante interessante maneira superficial enriquecido exemplos exercitar pirncipios</t>
+  </si>
+  <si>
+    <t>parece texto rascunhado vertido formato interpretacao cinema repetitivo personalidade personagens distorcidas pobres solucoes simplistas interacoes pessoais</t>
+  </si>
+  <si>
+    <t>recomendo sapiens provavelmente previsoes homo deus concretizaraok chato frustrante ali pura idealizacao futuro impossivelk</t>
+  </si>
+  <si>
+    <t>fraco final ridiculo 1984 otimo decepcionou</t>
+  </si>
+  <si>
+    <t>acho ofensa vai universidade estudar ciencias sociais filosofia historia sociologia antropologia ser nivelado baixo charlatao iletrado sequer terminou primario auto intitula filosofo chamado gente bocal maior filosofo direita estuda verdade le livros verdade vai fontes acinte</t>
+  </si>
+  <si>
+    <t>perdeu credibilidade realmente inteligente diria issoo caso queiroz factoide ridiculo forcado artificioso inventado queimar reputacao flavio bolsonaro merece dois minutos atencao radio interior merece atencao merece ser denunciado sim operacao midiatica criou</t>
+  </si>
+  <si>
+    <t>livro disfarca piadinhas passa versao grotesca distorcida historia pessoa rancor mesquinho naorecomendo inimigo oculto</t>
+  </si>
+  <si>
+    <t>livro incompleto acaba 110444 diario escrito 010844 explicar pq informam incompleto</t>
+  </si>
+  <si>
+    <t>pessoal fiz avaliacao livro mereceu pensei livro bom causa tanto avaliacoes boas teve autor enrola demais fica mais metade livro falando vida dizendo milagre amanha resposta milagre amanha solucao sabe ser bom voce revolucionou vida fica nisso continua nisso longo tempo parece propagandas chatas televisao enrola tanto final contas pessoa fica cansada demais metodos tenta mostrar ah corta hora raciocinio falando voce entrar site pegar complementacoes ideias apresenta mais facil resenha livro comprar</t>
   </si>
 </sst>
 </file>
@@ -977,1617 +980,2220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B201"/>
+  <dimension ref="A1:C201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>3</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B49">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B72">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:2">
+      <c r="C75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:2">
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:2">
+      <c r="C79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2">
+      <c r="C80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2">
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
+      <c r="C83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
+      <c r="C84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
+      <c r="C85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:2">
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:2">
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B88">
         <v>3</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:2">
+      <c r="C89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
+      <c r="C91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
+      <c r="C92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:2">
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B94">
         <v>2</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
+      <c r="C98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
+      <c r="C99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B101">
         <v>2</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
+      <c r="C101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>3</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:2">
+      <c r="C105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:2">
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B108">
         <v>2</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
+      <c r="C108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B109">
         <v>3</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
+      <c r="C109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:2">
+      <c r="C111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="C112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="C116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="C117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="C118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:2">
+      <c r="C119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
+      <c r="C120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:2">
+      <c r="C121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
+      <c r="C122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
+      <c r="C123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
+      <c r="C124">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:2">
+      <c r="C125">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
+      <c r="C126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:2">
+      <c r="C127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:2">
+      <c r="C128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:2">
+      <c r="C129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:2">
+      <c r="C130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
+      <c r="C131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:2">
+      <c r="C132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133">
         <v>2</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
+      <c r="C133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
+      <c r="C134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
+      <c r="C135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136">
         <v>2</v>
       </c>
-    </row>
-    <row r="137" spans="1:2">
+      <c r="C136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B137">
         <v>2</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
+      <c r="C137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B138">
         <v>2</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
+      <c r="C138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
+      <c r="C139">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B140">
         <v>2</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
+      <c r="C140">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:2">
+      <c r="C141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:2">
+      <c r="C142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
+      <c r="C143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:2">
+      <c r="C144">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
+      <c r="C145">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
+      <c r="C146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
+      <c r="C147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:2">
+      <c r="C148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
+      <c r="C149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B150">
         <v>2</v>
       </c>
-    </row>
-    <row r="151" spans="1:2">
+      <c r="C150">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:2">
+      <c r="C151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
+      <c r="C152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
+      <c r="C153">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
+      <c r="C154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
+      <c r="C155">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B156">
         <v>1</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
+      <c r="C156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
+      <c r="C157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
+      <c r="C158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:2">
+      <c r="C159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:2">
+      <c r="C160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B161">
         <v>2</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
+      <c r="C161">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:2">
+      <c r="C162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
+      <c r="C163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B164">
         <v>3</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
+      <c r="C164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
+      <c r="C165">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
+      <c r="C166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B167">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
+      <c r="C167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B168">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:2">
+      <c r="C168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B169">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
+      <c r="C169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
+      <c r="C170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
+      <c r="C171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
+      <c r="C172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B173">
         <v>2</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
+      <c r="C173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B174">
         <v>2</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
+      <c r="C174">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
+      <c r="C175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:2">
+      <c r="C176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:2">
+      <c r="C177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B178">
         <v>2</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
+      <c r="C178">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
-    </row>
-    <row r="180" spans="1:2">
+      <c r="C179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:2">
+      <c r="C180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
+      <c r="C181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:2">
+      <c r="C182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:2">
+      <c r="C183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
+      <c r="C184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
+      <c r="C185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B186">
         <v>2</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
+      <c r="C186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
+      <c r="C187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:2">
+      <c r="C188">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B189">
         <v>2</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
+      <c r="C189">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B190">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
+      <c r="C190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B191">
         <v>1</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
+      <c r="C191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B192">
         <v>2</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
+      <c r="C192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B193">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
+      <c r="C193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
+      <c r="C194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
+      <c r="C195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:2">
+      <c r="C196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:2">
+      <c r="C197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
+      <c r="C198">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
+      <c r="C199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
+      <c r="C200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
         <v>1</v>
       </c>
     </row>
